--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CommonElements" sheetId="3" r:id="rId2"/>
+    <sheet name="ContactDetails_Elements" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
   <si>
     <t>JSPath</t>
   </si>
@@ -294,6 +295,153 @@
   </si>
   <si>
     <t>CommonFieldName</t>
+  </si>
+  <si>
+    <t>ContactDetails_FieldName</t>
+  </si>
+  <si>
+    <t>phoneType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"]')</t>
+  </si>
+  <si>
+    <t>phoneTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"] ion-label')</t>
+  </si>
+  <si>
+    <t>phoneTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"] ion-select')</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>phoneNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>phoneNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"] input')</t>
+  </si>
+  <si>
+    <t>consentForPhContact</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"]')</t>
+  </si>
+  <si>
+    <t>consentForPhContactLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"] ion-label')</t>
+  </si>
+  <si>
+    <t>consentForPhContactDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"] ion-select')</t>
+  </si>
+  <si>
+    <t>preferedPhContactType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"]')</t>
+  </si>
+  <si>
+    <t>preferedPhContactTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"] ion-label')</t>
+  </si>
+  <si>
+    <t>preferedPhContactTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"] ion-select')</t>
+  </si>
+  <si>
+    <t>preferredtimeofcontact</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"]')</t>
+  </si>
+  <si>
+    <t>preferredtimeofcontactLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"] ion-label')</t>
+  </si>
+  <si>
+    <t>preferredtimeofcontactInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"] input')</t>
+  </si>
+  <si>
+    <t>emailType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"]')</t>
+  </si>
+  <si>
+    <t>emailTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"] ion-label')</t>
+  </si>
+  <si>
+    <t>emailTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"] ion-select')</t>
+  </si>
+  <si>
+    <t>emailID</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"]')</t>
+  </si>
+  <si>
+    <t>emailIDLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"] ion-label')</t>
+  </si>
+  <si>
+    <t>emailIDInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"] input')</t>
+  </si>
+  <si>
+    <t>phoneDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Phone Details"]')</t>
+  </si>
+  <si>
+    <t>emailDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Email Details"]')</t>
+  </si>
+  <si>
+    <t>saveBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-save"]')</t>
   </si>
 </sst>
 </file>
@@ -317,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,13 +524,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +830,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="143.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="143.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -754,14 +909,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="147.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1088,4 +1241,223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="153">
   <si>
     <t>JSPath</t>
   </si>
@@ -442,6 +442,39 @@
   </si>
   <si>
     <t>document.querySelector('button[icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>alert_SuccessMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] div[role="alert"]')</t>
+  </si>
+  <si>
+    <t>alert_closeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-icon[aria-label="information circle outline"]')</t>
+  </si>
+  <si>
+    <t>help_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('form pre')</t>
+  </si>
+  <si>
+    <t>help_description</t>
+  </si>
+  <si>
+    <t>specialChar_error</t>
+  </si>
+  <si>
+    <t>document.querySelector('[msg*="ALPHANUMERIC"]')</t>
+  </si>
+  <si>
+    <t>mandatoryFillToastMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast[role="status"]').shadowRoot.querySelector('div[part="message"]')</t>
   </si>
 </sst>
 </file>
@@ -907,9 +940,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1235,6 +1270,54 @@
       </c>
       <c r="B40" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1331,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CommonElements" sheetId="3" r:id="rId2"/>
     <sheet name="ContactDetails_Elements" sheetId="4" r:id="rId3"/>
+    <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="240">
   <si>
     <t>JSPath</t>
   </si>
@@ -444,37 +445,298 @@
     <t>document.querySelector('button[icon="pi pi-save"]')</t>
   </si>
   <si>
-    <t>alert_SuccessMsg</t>
-  </si>
-  <si>
-    <t>document.querySelector('div[id="toast-container"] div[role="alert"]')</t>
-  </si>
-  <si>
-    <t>alert_closeBtn</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-icon[aria-label="information circle outline"]')</t>
-  </si>
-  <si>
-    <t>help_button</t>
-  </si>
-  <si>
-    <t>document.querySelector('form pre')</t>
-  </si>
-  <si>
-    <t>help_description</t>
-  </si>
-  <si>
-    <t>specialChar_error</t>
-  </si>
-  <si>
-    <t>document.querySelector('[msg*="ALPHANUMERIC"]')</t>
-  </si>
-  <si>
-    <t>mandatoryFillToastMsg</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-toast[role="status"]').shadowRoot.querySelector('div[part="message"]')</t>
+    <t>Ijarah_NewApp_fieldName</t>
+  </si>
+  <si>
+    <t>application_details_add_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Add"]')</t>
+  </si>
+  <si>
+    <t>clasification_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.CLASSIFICATION.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>product_product_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PRODUCT.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sub_product_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.SCHEME_MST_SUBPRODUCTCODE."]+ion-select')</t>
+  </si>
+  <si>
+    <t>total_amount_requested_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.TotalFinanc"]').innerText</t>
+  </si>
+  <si>
+    <t>total_amount_requested_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-form-control-name-label="totalFinanceAmount"] input')</t>
+  </si>
+  <si>
+    <t>total_amount_requested_get_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-form-control-name-label="totalFinanceAmount"] input').value</t>
+  </si>
+  <si>
+    <t>declared_net_input_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.DeclaredNet"]').innerText</t>
+  </si>
+  <si>
+    <t>declared_net_income_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="declCurrNetincome"] input')</t>
+  </si>
+  <si>
+    <t>declared_current_obligation_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.DeclaredCur"]').innerText</t>
+  </si>
+  <si>
+    <t>declared_current_obligation_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="currentObligations"] input')</t>
+  </si>
+  <si>
+    <t>special_promotion_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SpecialProm"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_channel_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingCha"]+ion-select')</t>
+  </si>
+  <si>
+    <t>business_center_code_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.BusinessCen"]+ion-select')</t>
+  </si>
+  <si>
+    <t>servicing_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ServicingTy"]+ion-select')</t>
+  </si>
+  <si>
+    <t>region_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.Region.TOOL"]+ion-select')</t>
+  </si>
+  <si>
+    <t>servicing_branch_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ServicingBr"]+ion-select')</t>
+  </si>
+  <si>
+    <t>spoke_location_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spoke Location.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>topup_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>topup_application_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Application No.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>topup_application_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="topupApplNo"]').innerText</t>
+  </si>
+  <si>
+    <t>closing_staff_of_servicing_staff_RM_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ClosingStaf"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingTyp"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_office_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingOff"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_entity_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingEnt"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_staff_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingSta"]+ion-select')</t>
+  </si>
+  <si>
+    <t>reference_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceTy"]+ion-select')</t>
+  </si>
+  <si>
+    <t>reference_entity_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceEn"]+ion-select')</t>
+  </si>
+  <si>
+    <t>reference_code_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceCo"]').innerText</t>
+  </si>
+  <si>
+    <t>reference_code_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceCo"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>new_application_listview_edit_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>new_application_submit_button</t>
+  </si>
+  <si>
+    <t>new_application_return_button</t>
+  </si>
+  <si>
+    <t>new_aplication_view_summary_button</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('kub-workflow-decision button')[2]</t>
+  </si>
+  <si>
+    <t>view_summary_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ionic-title[class="ion-title"]')</t>
+  </si>
+  <si>
+    <t>view_summary_close_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toolbar ion-button[ng-reflect-color="danger"]')</t>
+  </si>
+  <si>
+    <t>list_view_record_status_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-tag[class="p-element ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>new_application_details_status_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toggle[role="switch"]')</t>
+  </si>
+  <si>
+    <t>new_application_details_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toggle[role="switch"]').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>date_highlighted_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class$="p-highlight ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>application_details_list_view_record</t>
+  </si>
+  <si>
+    <t>application_details_list_view_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('td[ng-reflect-ng-switch="badge"] span&gt;span').innerText</t>
+  </si>
+  <si>
+    <t>application_details_view_summary_button</t>
+  </si>
+  <si>
+    <t>appllication_details_view_summary_verification</t>
+  </si>
+  <si>
+    <t>application_details_view_summary_close_button</t>
+  </si>
+  <si>
+    <t>application_details_list_view_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>application_details_list_view_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>application_details_list_view_search_result</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen ion-col span[class="p-paginator-current ng-star-inserted"]').textContent</t>
+  </si>
+  <si>
+    <t>application_details_list_view_export</t>
+  </si>
+  <si>
+    <t>application_details_list_view_record_is_read_only</t>
+  </si>
+  <si>
+    <t>document.querySelector('tbody td[ng-reflect-ng-switch="string"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Submit"]')</t>
+  </si>
+  <si>
+    <t>alert_submit_button</t>
+  </si>
+  <si>
+    <t>Underwritter_AppDetails_tab</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg2"]')</t>
   </si>
 </sst>
 </file>
@@ -557,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -565,6 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,12 +1124,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="143.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="143.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -940,16 +1205,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="147.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1273,51 +1538,11 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" t="s">
-        <v>152</v>
+      <c r="A41" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1331,12 +1556,12 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1543,4 +1768,440 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="276">
   <si>
     <t>JSPath</t>
   </si>
@@ -737,6 +737,114 @@
   </si>
   <si>
     <t>document.querySelector('ion-segment-button[id="seg2"]')</t>
+  </si>
+  <si>
+    <t>statusTogglebtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toggle')</t>
+  </si>
+  <si>
+    <t>contactDetailsSearchbox</t>
+  </si>
+  <si>
+    <t>PDFBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown li[aria-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>XLSBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown li[aria-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>listview_PhoneType</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="PhoneTypeDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_PhoneNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="PhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>listview_EmailType</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="EmailTypeDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_EmailID</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="Emailid"]')</t>
+  </si>
+  <si>
+    <t>listview_Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="Emailid"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>contactDetailsScreen</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-content form')</t>
+  </si>
+  <si>
+    <t>searchResult</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="PhoneTypeDesc"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector(' span[class*="p-paginator-current"]')</t>
+  </si>
+  <si>
+    <t>alert_SuccessMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] div[role="alert"]')</t>
+  </si>
+  <si>
+    <t>alert_closeBtn</t>
+  </si>
+  <si>
+    <t>help_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-icon[aria-label="information circle outline"]')</t>
+  </si>
+  <si>
+    <t>help_description</t>
+  </si>
+  <si>
+    <t>document.querySelector('form pre')</t>
+  </si>
+  <si>
+    <t>specialChar_error</t>
+  </si>
+  <si>
+    <t>document.querySelector('[msg*="ALPHANUMERIC"]')</t>
+  </si>
+  <si>
+    <t>mandatoryFillToastMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast[role="status"]').shadowRoot.querySelector('div[part="message"]')</t>
+  </si>
+  <si>
+    <t>invalidEmail_error</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-msg="Invalid_Email"] ion-badge')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-msg="Invalid_MOBILE_NUMBER"] ion-badge')</t>
+  </si>
+  <si>
+    <t>invalidNumber_error</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1236,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="143.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="143.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1205,16 +1313,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="147.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1543,6 +1651,70 @@
       </c>
       <c r="B41" s="1" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1553,16 +1725,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="98" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="156.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1574,195 +1746,283 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1778,10 +2038,10 @@
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="108.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="108.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CommonElements" sheetId="3" r:id="rId2"/>
     <sheet name="ContactDetails_Elements" sheetId="4" r:id="rId3"/>
     <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId4"/>
+    <sheet name="AppDataEntryEmployementDetails" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="563">
   <si>
     <t>JSPath</t>
   </si>
@@ -845,6 +846,867 @@
   </si>
   <si>
     <t>invalidNumber_error</t>
+  </si>
+  <si>
+    <t>EmploymentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>SalariedEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>businessEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[1]</t>
+  </si>
+  <si>
+    <t>companyFirmEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[2]</t>
+  </si>
+  <si>
+    <t>pensionerEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[3]</t>
+  </si>
+  <si>
+    <t>selfEmployed_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[4]</t>
+  </si>
+  <si>
+    <t>EmpDetailsSectionNextPageBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class="p-ripple p-element p-paginator-next p-paginator-element p-link"]')</t>
+  </si>
+  <si>
+    <t>selfEmployedProfessional_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[0]</t>
+  </si>
+  <si>
+    <t>customerEmploymentBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>updateBtn</t>
+  </si>
+  <si>
+    <t>primaryEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"]')</t>
+  </si>
+  <si>
+    <t>primaryEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"] ion-label')</t>
+  </si>
+  <si>
+    <t>primaryEmploymentToggleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>employmentPeriod</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"]')</t>
+  </si>
+  <si>
+    <t>employmentPeriodLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>employmentPeriodDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>natureOfEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"]')</t>
+  </si>
+  <si>
+    <t>natureOfEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"] ion-label')</t>
+  </si>
+  <si>
+    <t>natureOfEmploymentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"] ion-select')</t>
+  </si>
+  <si>
+    <t>companyType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"]')</t>
+  </si>
+  <si>
+    <t>companyTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"] ion-label')</t>
+  </si>
+  <si>
+    <t>companyTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"] ion-select')</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"]')</t>
+  </si>
+  <si>
+    <t>professionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>professionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>professionType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"]')</t>
+  </si>
+  <si>
+    <t>professionTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"] ion-label')</t>
+  </si>
+  <si>
+    <t>professionTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"] ion-select')</t>
+  </si>
+  <si>
+    <t>statutoryAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"]')</t>
+  </si>
+  <si>
+    <t>statutoryAuthorityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"] ion-label')</t>
+  </si>
+  <si>
+    <t>statutoryAuthorityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="employerName"]')</t>
+  </si>
+  <si>
+    <t>employerNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="employerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerName"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerNameOthers</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"]')</t>
+  </si>
+  <si>
+    <t>employerNameOthersLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerNameOthersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"] ion-input')</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"]')</t>
+  </si>
+  <si>
+    <t>employeeIDLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>employeeIDInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] input')</t>
+  </si>
+  <si>
+    <t>dateOfJoining</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"]')</t>
+  </si>
+  <si>
+    <t>dateOfJoiningLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] label')</t>
+  </si>
+  <si>
+    <t>dateOfJoiningCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] p-calendar')</t>
+  </si>
+  <si>
+    <t>dateOfJoiningInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] input')</t>
+  </si>
+  <si>
+    <t>employmentEndDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"]')</t>
+  </si>
+  <si>
+    <t>employmentEndDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"] label')</t>
+  </si>
+  <si>
+    <t>employmentEndDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"]')</t>
+  </si>
+  <si>
+    <t>departmentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"] ion-label')</t>
+  </si>
+  <si>
+    <t>departmentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"] ion-select')</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"]')</t>
+  </si>
+  <si>
+    <t>designationLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"] ion-label')</t>
+  </si>
+  <si>
+    <t>designationDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"] ion-select')</t>
+  </si>
+  <si>
+    <t>employmentType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"]')</t>
+  </si>
+  <si>
+    <t>employmentTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"] ion-label')</t>
+  </si>
+  <si>
+    <t>employmentTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"] ion-select')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"]')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"] input')</t>
+  </si>
+  <si>
+    <t>directManagerTelephone</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"]')</t>
+  </si>
+  <si>
+    <t>directManagerTelephoneLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerTelephoneInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"] input')</t>
+  </si>
+  <si>
+    <t>incomePaymode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"]')</t>
+  </si>
+  <si>
+    <t>incomePaymodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"] ion-label')</t>
+  </si>
+  <si>
+    <t>incomePaymodeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerPhoneExtension</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"]')</t>
+  </si>
+  <si>
+    <t>employerPhoneExLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerPhoneExInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"] input')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"] input')</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"]')</t>
+  </si>
+  <si>
+    <t>stateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"] ion-label')</t>
+  </si>
+  <si>
+    <t>stateDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"]')</t>
+  </si>
+  <si>
+    <t>cityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"] ion-label')</t>
+  </si>
+  <si>
+    <t>cityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"] ion-select')</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"]')</t>
+  </si>
+  <si>
+    <t>pincodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"] ion-label')</t>
+  </si>
+  <si>
+    <t>pincodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"] input')</t>
+  </si>
+  <si>
+    <t>totalExperience</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"]')</t>
+  </si>
+  <si>
+    <t>totalExperienceLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"] ion-label')</t>
+  </si>
+  <si>
+    <t>totalExperienceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"] input')</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"]')</t>
+  </si>
+  <si>
+    <t>sectorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"] ion-label')</t>
+  </si>
+  <si>
+    <t>sectorDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"] ion-select')</t>
+  </si>
+  <si>
+    <t>subSector</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"]')</t>
+  </si>
+  <si>
+    <t>subSectorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"] ion-label')</t>
+  </si>
+  <si>
+    <t>subSectorDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"] ion-select')</t>
+  </si>
+  <si>
+    <t>noOfPartners</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"]')</t>
+  </si>
+  <si>
+    <t>noOfPartnersLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"] ion-label')</t>
+  </si>
+  <si>
+    <t>noOfPartnersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"] input')</t>
+  </si>
+  <si>
+    <t>natureOfBusiness</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"]')</t>
+  </si>
+  <si>
+    <t>natureOfBusinessLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"] ion-label')</t>
+  </si>
+  <si>
+    <t>natureOfBusinessDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"] ion-select')</t>
+  </si>
+  <si>
+    <t>regBusinessName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"]')</t>
+  </si>
+  <si>
+    <t>regBusinessNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"] ion-label')</t>
+  </si>
+  <si>
+    <t>regBusinessNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"] input')</t>
+  </si>
+  <si>
+    <t>regBusinessNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"]')</t>
+  </si>
+  <si>
+    <t>regBusinessNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>regBusinessNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"] input')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"]')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"] label')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>officePremisesType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"]')</t>
+  </si>
+  <si>
+    <t>officePremisesTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"] ion-label')</t>
+  </si>
+  <si>
+    <t>officePremisesTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"] ion-select')</t>
+  </si>
+  <si>
+    <t>shareHolderPercent</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"]')</t>
+  </si>
+  <si>
+    <t>shareHolderPercentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] ion-label')</t>
+  </si>
+  <si>
+    <t>shareHolderPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] input')</t>
+  </si>
+  <si>
+    <t>numberOfEmployees</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] ion-input')</t>
+  </si>
+  <si>
+    <t>numberOfEmployeesLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"] ion-label')</t>
+  </si>
+  <si>
+    <t>numberOfEmployeesInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"] input')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"]')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"] ion-label')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmploymentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"] input')</t>
+  </si>
+  <si>
+    <t>directManagerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"]')</t>
+  </si>
+  <si>
+    <t>directManagerNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"] input')</t>
+  </si>
+  <si>
+    <t>employerCityCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"]')</t>
+  </si>
+  <si>
+    <t>employerCityCodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerCityCodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"] input')</t>
+  </si>
+  <si>
+    <t>retirementAge</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"]')</t>
+  </si>
+  <si>
+    <t>retirementAgeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"] ion-label')</t>
+  </si>
+  <si>
+    <t>retirementAgeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"] input')</t>
+  </si>
+  <si>
+    <t>recordStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"]')</t>
+  </si>
+  <si>
+    <t>recordStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>recordStatusToggleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"]')</t>
+  </si>
+  <si>
+    <t>remarksLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-label')</t>
+  </si>
+  <si>
+    <t>remarksTextarea</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-textarea')</t>
+  </si>
+  <si>
+    <t>listview_SearchBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="employerName"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector('[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>listview_NatureOfEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentTypeDesc"] span')</t>
+  </si>
+  <si>
+    <t>listview_EmployerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employerName"] span')</t>
+  </si>
+  <si>
+    <t>listview_EmploymentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentStatusDesc"] span')</t>
+  </si>
+  <si>
+    <t>searchbox_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="employerName"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector(' span[class*="p-paginator-current"]')</t>
+  </si>
+  <si>
+    <t>invalidNumberError</t>
+  </si>
+  <si>
+    <t>specialCharError</t>
+  </si>
+  <si>
+    <t>document.querySelector('[msg*="ALPHANUMERIC"] ion-badge')</t>
+  </si>
+  <si>
+    <t>exportBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employerName"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector('p-dropdown')</t>
+  </si>
+  <si>
+    <t>customerEmploymentScreen</t>
+  </si>
+  <si>
+    <t>document.querySelector('form ion-title')</t>
+  </si>
+  <si>
+    <t>inboxSearchInput</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; input")</t>
+  </si>
+  <si>
+    <t>customerFinancialsTab</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg4")</t>
+  </si>
+  <si>
+    <t>customerFinancialsTabBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[0]</t>
+  </si>
+  <si>
+    <t>Date_today</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t>customerInfoTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[mode="md"]')</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +2098,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="143.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="143.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1319,10 +2181,10 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="147.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1727,14 +2589,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="156.88671875" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="156.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2038,10 +2900,10 @@
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
-    <col min="2" max="2" width="108.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2464,4 +3326,1231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>354</v>
+      </c>
+      <c r="B42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>358</v>
+      </c>
+      <c r="B44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>362</v>
+      </c>
+      <c r="B46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>372</v>
+      </c>
+      <c r="B51" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>374</v>
+      </c>
+      <c r="B52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>378</v>
+      </c>
+      <c r="B54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>382</v>
+      </c>
+      <c r="B56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>384</v>
+      </c>
+      <c r="B57" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>388</v>
+      </c>
+      <c r="B59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>390</v>
+      </c>
+      <c r="B60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>392</v>
+      </c>
+      <c r="B61" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>398</v>
+      </c>
+      <c r="B64" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>402</v>
+      </c>
+      <c r="B66" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>404</v>
+      </c>
+      <c r="B67" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>406</v>
+      </c>
+      <c r="B68" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>412</v>
+      </c>
+      <c r="B71" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>414</v>
+      </c>
+      <c r="B72" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>416</v>
+      </c>
+      <c r="B73" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>418</v>
+      </c>
+      <c r="B74" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>420</v>
+      </c>
+      <c r="B75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>422</v>
+      </c>
+      <c r="B76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>424</v>
+      </c>
+      <c r="B77" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>426</v>
+      </c>
+      <c r="B78" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>428</v>
+      </c>
+      <c r="B79" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>430</v>
+      </c>
+      <c r="B80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>432</v>
+      </c>
+      <c r="B81" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>434</v>
+      </c>
+      <c r="B82" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>436</v>
+      </c>
+      <c r="B83" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>438</v>
+      </c>
+      <c r="B84" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>440</v>
+      </c>
+      <c r="B85" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>442</v>
+      </c>
+      <c r="B86" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>446</v>
+      </c>
+      <c r="B88" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>448</v>
+      </c>
+      <c r="B89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>450</v>
+      </c>
+      <c r="B90" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>452</v>
+      </c>
+      <c r="B91" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>454</v>
+      </c>
+      <c r="B92" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>456</v>
+      </c>
+      <c r="B93" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>458</v>
+      </c>
+      <c r="B94" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>460</v>
+      </c>
+      <c r="B95" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>462</v>
+      </c>
+      <c r="B96" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>464</v>
+      </c>
+      <c r="B97" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>466</v>
+      </c>
+      <c r="B98" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>468</v>
+      </c>
+      <c r="B99" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>470</v>
+      </c>
+      <c r="B100" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>472</v>
+      </c>
+      <c r="B101" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>474</v>
+      </c>
+      <c r="B102" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>476</v>
+      </c>
+      <c r="B103" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>478</v>
+      </c>
+      <c r="B104" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>480</v>
+      </c>
+      <c r="B105" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>482</v>
+      </c>
+      <c r="B106" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>484</v>
+      </c>
+      <c r="B107" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>486</v>
+      </c>
+      <c r="B108" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>488</v>
+      </c>
+      <c r="B109" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>490</v>
+      </c>
+      <c r="B110" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>492</v>
+      </c>
+      <c r="B111" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>494</v>
+      </c>
+      <c r="B112" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>496</v>
+      </c>
+      <c r="B113" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>498</v>
+      </c>
+      <c r="B114" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>500</v>
+      </c>
+      <c r="B115" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>502</v>
+      </c>
+      <c r="B116" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>504</v>
+      </c>
+      <c r="B117" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>506</v>
+      </c>
+      <c r="B118" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>508</v>
+      </c>
+      <c r="B119" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>510</v>
+      </c>
+      <c r="B120" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>512</v>
+      </c>
+      <c r="B121" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>514</v>
+      </c>
+      <c r="B122" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>516</v>
+      </c>
+      <c r="B123" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>518</v>
+      </c>
+      <c r="B124" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>520</v>
+      </c>
+      <c r="B125" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>522</v>
+      </c>
+      <c r="B126" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>524</v>
+      </c>
+      <c r="B127" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>526</v>
+      </c>
+      <c r="B128" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>528</v>
+      </c>
+      <c r="B129" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>530</v>
+      </c>
+      <c r="B130" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>532</v>
+      </c>
+      <c r="B131" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>534</v>
+      </c>
+      <c r="B132" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>536</v>
+      </c>
+      <c r="B133" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>538</v>
+      </c>
+      <c r="B134" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>540</v>
+      </c>
+      <c r="B135" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>542</v>
+      </c>
+      <c r="B136" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>544</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>259</v>
+      </c>
+      <c r="B138" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>546</v>
+      </c>
+      <c r="B140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>547</v>
+      </c>
+      <c r="B141" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>549</v>
+      </c>
+      <c r="B142" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>551</v>
+      </c>
+      <c r="B143" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>553</v>
+      </c>
+      <c r="B144" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>555</v>
+      </c>
+      <c r="B145" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>557</v>
+      </c>
+      <c r="B146" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>559</v>
+      </c>
+      <c r="B147" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>561</v>
+      </c>
+      <c r="B150" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>557</v>
+      </c>
+      <c r="B151" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ContactDetails_Elements" sheetId="4" r:id="rId3"/>
     <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId4"/>
     <sheet name="AppDataEntryEmployementDetails" sheetId="6" r:id="rId5"/>
+    <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="843">
   <si>
     <t>JSPath</t>
   </si>
@@ -1707,13 +1708,853 @@
   </si>
   <si>
     <t>document.querySelector('ion-title[mode="md"]')</t>
+  </si>
+  <si>
+    <t>AddressDetails_FieldName</t>
+  </si>
+  <si>
+    <t>Customer Identification</t>
+  </si>
+  <si>
+    <t>AdditionalCustomerInfoScreen_610</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg4')</t>
+  </si>
+  <si>
+    <t>CustomerIdentification_UnderadditionalCust_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="idTypeDesc"]').parentElement.parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>IdType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="idType"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>IdNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="idNumber"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>Issuuedate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfIssue"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfExpiry"]').querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>IssueAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="issuingAuthority"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>CountryOfIssuse</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="placeOfIssue"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adderss Details </t>
+  </si>
+  <si>
+    <t>AdderssDetailsTab_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="addressTypeDesc"]').parentElement.parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>address_type_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_TYPE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_status_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_STATUS.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>residential_or_ocupency_status_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RES_STATUS.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>communication_address_toggle_610</t>
+  </si>
+  <si>
+    <t>document.getElementsByTagName('ion-toggle')[0]</t>
+  </si>
+  <si>
+    <t>location_category_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Location Category.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_line1_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_line1_mandatory_verification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>address_line1_arabic_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Address Line 1 in Arabic.TOOLT"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_line2_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_line2_mandatory_verification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>address_line2_arabic_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Address Line 2 In Arabic.TOOLT"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>country_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.COUNTRY_CODE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>province_id_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PROVINCE_ID.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>city_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>district_name_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>district_name_mandatory_verification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>zip_code_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>zip_code_mandatory_verification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>po_box_number_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>po_box_number_mandatory_verification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>mobile_number_primary_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_MOBILE_NUMBER_"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>mobile_number_primary_mandatory_verification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CUSTOMERDETAILS_MOBILE_NUMBER_"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>duration_on_stay_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Duration of Stay.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>duration_on_stay_mandatory_verification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Duration of Stay.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>latitude_details_of_the_address_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>latitude_details_of_the_address_mandatory_verification_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>longitude_details_of_the_address_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>longitude_details_of_the_address_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>landmark_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>landmark_mandatory_verifcation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>occupency_date</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-calendar input')</t>
+  </si>
+  <si>
+    <t>occupency_date_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Occupancy date"] span')</t>
+  </si>
+  <si>
+    <t>landlord_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_NAME.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>landlord_name_Mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_NAME.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>landlord_mobile_number</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>landlord_mobile_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>rent_amount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RENT_AMT.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>rent_amount_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RENT_AMT.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>frequency_of_rent</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Frequency of rent"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_line_1_special_character_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.ADD_LINE_1"]+div ion-badge').textContent</t>
+  </si>
+  <si>
+    <t>addressdetails_status_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>addressdetails_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>address_details__record_search_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[class="p-datatable-header ng-star-inserted"] input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>list_view_search_input_box</t>
+  </si>
+  <si>
+    <t>AdditionalCustomerInfoScreen</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg3')</t>
+  </si>
+  <si>
+    <t>addressType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressType"]')</t>
+  </si>
+  <si>
+    <t>addressTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressType"] ion-label')</t>
+  </si>
+  <si>
+    <t>addressTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressType"] ion-select')</t>
+  </si>
+  <si>
+    <t>addressStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressStatus"]')</t>
+  </si>
+  <si>
+    <t>addressStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>addressStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>residentialStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residentialStatus"]')</t>
+  </si>
+  <si>
+    <t>residentialStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residentialStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>residentialStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residentialStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>communicationAddress</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMailingAddress"]')</t>
+  </si>
+  <si>
+    <t>communicationAddressLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMailingAddress"] ion-label')</t>
+  </si>
+  <si>
+    <t>communicationAddressToggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMailingAddress"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>locationCategory</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressCatg"]')</t>
+  </si>
+  <si>
+    <t>locationCategoryLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressCatg"] ion-label')</t>
+  </si>
+  <si>
+    <t>locationCategoryDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressCatg"] ion-select')</t>
+  </si>
+  <si>
+    <t>addressLine1</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine1"]')</t>
+  </si>
+  <si>
+    <t>addressLine1Label</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine1"] ion-label')</t>
+  </si>
+  <si>
+    <t>addressLine1Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine1"] input')</t>
+  </si>
+  <si>
+    <t>addressLine2</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine2"]')</t>
+  </si>
+  <si>
+    <t>addressLine2Label</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine2"] ion-label')</t>
+  </si>
+  <si>
+    <t>addressLine2Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine2"] input')</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryCode"]')</t>
+  </si>
+  <si>
+    <t>countryLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>countryDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>provinceId</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="provinceId"]')</t>
+  </si>
+  <si>
+    <t>provinceIdLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="provinceId"] ion-label')</t>
+  </si>
+  <si>
+    <t>provinceIdDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="provinceId"] ion-select')</t>
+  </si>
+  <si>
+    <t>districtName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="districtId"]')</t>
+  </si>
+  <si>
+    <t>districtNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="districtId"] ion-label')</t>
+  </si>
+  <si>
+    <t>districtNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="districtId"] ion-select')</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cityName"]')</t>
+  </si>
+  <si>
+    <t>cityNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cityName"] ion-label')</t>
+  </si>
+  <si>
+    <t>cityNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cityName"] input')</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="zipCode"]')</t>
+  </si>
+  <si>
+    <t>zipCodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="zipCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>zipCodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="zipCode"] input')</t>
+  </si>
+  <si>
+    <t>poBoxNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="poBox"]')</t>
+  </si>
+  <si>
+    <t>poBoxNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="poBox"] ion-label')</t>
+  </si>
+  <si>
+    <t>poBoxNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="poBox"] input')</t>
+  </si>
+  <si>
+    <t>mobileNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile1"]')</t>
+  </si>
+  <si>
+    <t>mobileNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile1"] ion-label')</t>
+  </si>
+  <si>
+    <t>mobileNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile1"] input')</t>
+  </si>
+  <si>
+    <t>durationOfStay</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfYearsAtCurrentAddress"]')</t>
+  </si>
+  <si>
+    <t>durationOfStayLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfYearsAtCurrentAddress"] ion-label')</t>
+  </si>
+  <si>
+    <t>durationOfStayInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfYearsAtCurrentAddress"] input')</t>
+  </si>
+  <si>
+    <t>latitudeDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLatitude"]')</t>
+  </si>
+  <si>
+    <t>latitudeDetailsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLatitude"] ion-label')</t>
+  </si>
+  <si>
+    <t>latitudeDetailsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLatitude"] input')</t>
+  </si>
+  <si>
+    <t>longitudeDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLongitude"]')</t>
+  </si>
+  <si>
+    <t>longitudeDetailsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLongitude"] ion-label')</t>
+  </si>
+  <si>
+    <t>longitudeDetailsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLongitude"] input')</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landmark"]')</t>
+  </si>
+  <si>
+    <t>landmarkLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landmark"] ion-label')</t>
+  </si>
+  <si>
+    <t>landmarkInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landmark"] input')</t>
+  </si>
+  <si>
+    <t>occupancyDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="occupancySince"]')</t>
+  </si>
+  <si>
+    <t>occupancyDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="occupancySince"] label')</t>
+  </si>
+  <si>
+    <t>occupancyDateCalendar</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="occupancySince"] p-calendar')</t>
+  </si>
+  <si>
+    <t>landlordName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordName"]')</t>
+  </si>
+  <si>
+    <t>landlordNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordName"] ion-label')</t>
+  </si>
+  <si>
+    <t>landlordNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordName"] input')</t>
+  </si>
+  <si>
+    <t>landlordMobileNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordMobile"]')</t>
+  </si>
+  <si>
+    <t>landlordMobileNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordMobile"] ion-label')</t>
+  </si>
+  <si>
+    <t>landlordMobileNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordMobile"] input')</t>
+  </si>
+  <si>
+    <t>rentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="rentAmount"]')</t>
+  </si>
+  <si>
+    <t>rentAmountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="rentAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>rentAmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="rentAmount"] input')</t>
+  </si>
+  <si>
+    <t>frequencyOfRent</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="frequencyOfRent"]')</t>
+  </si>
+  <si>
+    <t>frequencyOfRentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="frequencyOfRent"] ion-label')</t>
+  </si>
+  <si>
+    <t>frequencyOfRentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="frequencyOfRent"] ion-select')</t>
+  </si>
+  <si>
+    <t>statusToggleBtn</t>
+  </si>
+  <si>
+    <t>listview_AddressType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="addressTypeDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_Country</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="countryCodeDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_OccupancyStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="residentialStatus"]')</t>
+  </si>
+  <si>
+    <t>listview_OccupanceSince</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="residentialStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_ContactAddress</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="addressLine1"]')</t>
+  </si>
+  <si>
+    <t>listview_SearchBox</t>
+  </si>
+  <si>
+    <t>enter_theName_InSearchBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt;input')</t>
+  </si>
+  <si>
+    <t>blank field popup</t>
+  </si>
+  <si>
+    <t>fillAllTheDetailsPopup_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[class="toast-message"]')</t>
+  </si>
+  <si>
+    <t>onlyAlphaNumericCharterPopup_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-badge[color="primary error-text"]')</t>
+  </si>
+  <si>
+    <t>ValidZipCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="VAL.ZIPCODE.LIMIT"]')</t>
+  </si>
+  <si>
+    <t>CustomerAddressTitle</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"]')[1].parentElement.nextElementSibling.querySelector('ion-title')</t>
+  </si>
+  <si>
+    <t>StatusToggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"]').querySelector('ion-toggle')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active InActive Status </t>
+  </si>
+  <si>
+    <t>ActiveInActiveFirstRow</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="addressTypeDesc"]').parentElement.parentElement.nextElementSibling.querySelector('p-tag')</t>
+  </si>
+  <si>
+    <t>successMsg_610</t>
+  </si>
+  <si>
+    <t>document.querySelector("[aria-label*='Success!']")</t>
+  </si>
+  <si>
+    <t>AddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-plus"]')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1729,8 +2570,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1758,6 +2606,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,7 +2649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1798,6 +2658,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2175,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2577,6 +3447,22 @@
       </c>
       <c r="B49" s="4" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +4218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
@@ -4553,4 +5439,1151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="136.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="21" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="21" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="21" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="21" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="21" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="24" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>671</v>
+      </c>
+      <c r="B66" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>673</v>
+      </c>
+      <c r="B67" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>675</v>
+      </c>
+      <c r="B68" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>677</v>
+      </c>
+      <c r="B69" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>679</v>
+      </c>
+      <c r="B70" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>681</v>
+      </c>
+      <c r="B71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>683</v>
+      </c>
+      <c r="B72" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>685</v>
+      </c>
+      <c r="B73" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>687</v>
+      </c>
+      <c r="B74" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>689</v>
+      </c>
+      <c r="B75" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>691</v>
+      </c>
+      <c r="B76" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>693</v>
+      </c>
+      <c r="B77" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>695</v>
+      </c>
+      <c r="B78" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>697</v>
+      </c>
+      <c r="B79" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>699</v>
+      </c>
+      <c r="B80" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>701</v>
+      </c>
+      <c r="B81" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>703</v>
+      </c>
+      <c r="B82" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>705</v>
+      </c>
+      <c r="B83" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>707</v>
+      </c>
+      <c r="B84" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>709</v>
+      </c>
+      <c r="B85" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>711</v>
+      </c>
+      <c r="B86" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>713</v>
+      </c>
+      <c r="B87" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>715</v>
+      </c>
+      <c r="B88" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>717</v>
+      </c>
+      <c r="B89" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>719</v>
+      </c>
+      <c r="B90" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>721</v>
+      </c>
+      <c r="B91" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>723</v>
+      </c>
+      <c r="B92" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>725</v>
+      </c>
+      <c r="B93" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>727</v>
+      </c>
+      <c r="B94" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>729</v>
+      </c>
+      <c r="B95" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>731</v>
+      </c>
+      <c r="B96" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>733</v>
+      </c>
+      <c r="B97" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>735</v>
+      </c>
+      <c r="B98" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>737</v>
+      </c>
+      <c r="B99" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>739</v>
+      </c>
+      <c r="B100" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>741</v>
+      </c>
+      <c r="B101" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>743</v>
+      </c>
+      <c r="B102" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>745</v>
+      </c>
+      <c r="B103" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>747</v>
+      </c>
+      <c r="B104" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>749</v>
+      </c>
+      <c r="B105" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>751</v>
+      </c>
+      <c r="B106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>753</v>
+      </c>
+      <c r="B107" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>755</v>
+      </c>
+      <c r="B108" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>757</v>
+      </c>
+      <c r="B109" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>759</v>
+      </c>
+      <c r="B110" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>761</v>
+      </c>
+      <c r="B111" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>763</v>
+      </c>
+      <c r="B112" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>765</v>
+      </c>
+      <c r="B113" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>767</v>
+      </c>
+      <c r="B114" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>769</v>
+      </c>
+      <c r="B115" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>771</v>
+      </c>
+      <c r="B116" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>773</v>
+      </c>
+      <c r="B117" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>775</v>
+      </c>
+      <c r="B118" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>777</v>
+      </c>
+      <c r="B119" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>779</v>
+      </c>
+      <c r="B120" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>781</v>
+      </c>
+      <c r="B121" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>783</v>
+      </c>
+      <c r="B122" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>785</v>
+      </c>
+      <c r="B123" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>787</v>
+      </c>
+      <c r="B124" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>789</v>
+      </c>
+      <c r="B125" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>791</v>
+      </c>
+      <c r="B126" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>793</v>
+      </c>
+      <c r="B127" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>795</v>
+      </c>
+      <c r="B128" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>797</v>
+      </c>
+      <c r="B129" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>799</v>
+      </c>
+      <c r="B130" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>801</v>
+      </c>
+      <c r="B131" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>803</v>
+      </c>
+      <c r="B132" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>805</v>
+      </c>
+      <c r="B133" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>807</v>
+      </c>
+      <c r="B134" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>809</v>
+      </c>
+      <c r="B135" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>811</v>
+      </c>
+      <c r="B136" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>812</v>
+      </c>
+      <c r="B137" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>814</v>
+      </c>
+      <c r="B138" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>816</v>
+      </c>
+      <c r="B139" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>818</v>
+      </c>
+      <c r="B140" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>820</v>
+      </c>
+      <c r="B141" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>822</v>
+      </c>
+      <c r="B142" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>823</v>
+      </c>
+      <c r="B144" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="10" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>826</v>
+      </c>
+      <c r="B148" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>828</v>
+      </c>
+      <c r="B149" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>830</v>
+      </c>
+      <c r="B150" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>832</v>
+      </c>
+      <c r="B152" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75">
+      <c r="A153" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75">
+      <c r="A155" s="12" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75">
+      <c r="A157" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId4"/>
     <sheet name="AppDataEntryEmployementDetails" sheetId="6" r:id="rId5"/>
     <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId6"/>
+    <sheet name="CDAppDataEntryCFIncomeDetails" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1004">
   <si>
     <t>JSPath</t>
   </si>
@@ -2548,6 +2549,489 @@
   </si>
   <si>
     <t>document.querySelector('button[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>customerFinancialsTabEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>bankNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Bank Name"]').parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>bankNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Bank Name"]')</t>
+  </si>
+  <si>
+    <t>branchNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[3].parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>branchNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[3]</t>
+  </si>
+  <si>
+    <t>deductionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[0]</t>
+  </si>
+  <si>
+    <t>deductionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[0]</t>
+  </si>
+  <si>
+    <t>deductionFrequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[1]</t>
+  </si>
+  <si>
+    <t>deductionFrequencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[1]</t>
+  </si>
+  <si>
+    <t>deductionAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[2]</t>
+  </si>
+  <si>
+    <t>deductionAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmount"]')</t>
+  </si>
+  <si>
+    <t>deductionDef%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[3]</t>
+  </si>
+  <si>
+    <t>deductionDef%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionDefPercentage"]')</t>
+  </si>
+  <si>
+    <t>deductionAdj%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[4]</t>
+  </si>
+  <si>
+    <t>deductionAdj%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAdjustedPercent"]')</t>
+  </si>
+  <si>
+    <t>deductionConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[5]</t>
+  </si>
+  <si>
+    <t>deductionConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmountConsidered"]')</t>
+  </si>
+  <si>
+    <t>deductionActionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[6]</t>
+  </si>
+  <si>
+    <t>deductionActionAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmountConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>totalDeductionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeduction"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalDeductionInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeduction"]')</t>
+  </si>
+  <si>
+    <t>totalDeductionConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalDeductionConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]')</t>
+  </si>
+  <si>
+    <t>currencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>currencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-row[class="md hydrated"]')[4].querySelector('ion-col ion-select')</t>
+  </si>
+  <si>
+    <t>successToastMsg</t>
+  </si>
+  <si>
+    <t>successToastCloseBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('button[part="button"]')</t>
+  </si>
+  <si>
+    <t>customerEmployementListSection</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[iconpos="left"]').parentElement</t>
+  </si>
+  <si>
+    <t>customerEmployementEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[iconpos="left"]').parentElement.parentElement.nextElementSibling.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>customerFinancialsPencilEditBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector("[ng-reflect-text='Edit']")</t>
+  </si>
+  <si>
+    <t>incomeSaveBtn</t>
+  </si>
+  <si>
+    <t>incomeBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1]</t>
+  </si>
+  <si>
+    <t>incomeScreenTitle</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1].parentElement</t>
+  </si>
+  <si>
+    <t>employementTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>employementTypeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]')</t>
+  </si>
+  <si>
+    <t>lumpsumAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="lumpsumAmount"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>lumpsumAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="lumpsumAmount"]')</t>
+  </si>
+  <si>
+    <t>pensionAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="pensionAmount"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>pensionAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="pensionAmount"]')</t>
+  </si>
+  <si>
+    <t>financialYearLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Financial Year"] label')</t>
+  </si>
+  <si>
+    <t>financialYearInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Financial Year"] input')</t>
+  </si>
+  <si>
+    <t>filingDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Filing Date"] label')</t>
+  </si>
+  <si>
+    <t>filingDateInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Filing Date"] input')</t>
+  </si>
+  <si>
+    <t>incomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[0]</t>
+  </si>
+  <si>
+    <t>incomeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('tbody td ion-select')[0]</t>
+  </si>
+  <si>
+    <t>frequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[1]</t>
+  </si>
+  <si>
+    <t>frequencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('tbody td ion-select')[1]</t>
+  </si>
+  <si>
+    <t>amountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[2]</t>
+  </si>
+  <si>
+    <t>amountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmount"]')</t>
+  </si>
+  <si>
+    <t>defined%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[3]</t>
+  </si>
+  <si>
+    <t>defined%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeDefPercentage"]')</t>
+  </si>
+  <si>
+    <t>adjusted%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[4]</t>
+  </si>
+  <si>
+    <t>adjusted%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAdjustedPercent"]')</t>
+  </si>
+  <si>
+    <t>amountConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[5]</t>
+  </si>
+  <si>
+    <t>amountConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmountConsidered"]')</t>
+  </si>
+  <si>
+    <t>actionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[6]</t>
+  </si>
+  <si>
+    <t>actionAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmountConsidered"]').parentElement.nextSibling.firstChild</t>
+  </si>
+  <si>
+    <t>actionDeleteBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-button[color="danger"]')</t>
+  </si>
+  <si>
+    <t>totalIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncome"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncome"]')</t>
+  </si>
+  <si>
+    <t>totalIncomeConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncomeConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalIncomeConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncomeConsidered"]')</t>
+  </si>
+  <si>
+    <t>salaryCreditedToBankLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2].parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>salaryCreditedToBankDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2]</t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('#menu-content &gt; app-tabs &gt; kub-header &gt; ion-header &gt; ion-toolbar &gt; section &gt; ion-list &gt; ion-item:nth-child(2) &gt; div &gt; div &gt; ion-icon').shadowRoot.querySelector('div &gt; svg')</t>
+  </si>
+  <si>
+    <t>clickSearchInInbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; button')</t>
+  </si>
+  <si>
+    <t>moduleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('#menu-content &gt; app-tabs &gt; kub-header &gt; ion-header &gt; ion-toolbar &gt; section &gt; ion-list &gt; ion-item:nth-child(5) &gt; ion-select')</t>
+  </si>
+  <si>
+    <t>selectLOS</t>
+  </si>
+  <si>
+    <t>document.querySelector('#ion-overlay-1 &gt; ion-select-popover &gt; ion-list &gt; ion-radio-group &gt; ion-item:nth-child(3)')</t>
+  </si>
+  <si>
+    <t>searchInInbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt;input') </t>
+  </si>
+  <si>
+    <t>selectRecord</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1-table &gt; tbody &gt; tr:nth-child(1) &gt; td.tableuser-inbox &gt; button')</t>
+  </si>
+  <si>
+    <t>CustomerFinacials</t>
+  </si>
+  <si>
+    <t>document.querySelector('#seg4')</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>AddButtonInIncome</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-sm p-button-info p-button-raised grid-Addbtn p-button p-component p-button-icon-only ng-star-inserted")[2]</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentType"] span')</t>
+  </si>
+  <si>
+    <t>listview_NetIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"] span')</t>
+  </si>
+  <si>
+    <t>listview_NetDeduction</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalDeductionConsidered"] span')</t>
+  </si>
+  <si>
+    <t>listview_ConsideredIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="consideredIncome"] span')</t>
+  </si>
+  <si>
+    <t>listview_Currency</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyCode"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyCode"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>incomeSectionSearchbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentType"]').offsetParent.offsetParent.offsetParent.offsetParent.querySelector('span[class="p-paginator-current ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>exportPDF</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>exportXLS</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"]')</t>
   </si>
 </sst>
 </file>
@@ -2578,7 +3062,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2621,6 +3105,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2649,7 +3139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2668,6 +3158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5445,8 +5936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6586,4 +7077,719 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>854</v>
+      </c>
+      <c r="B8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>856</v>
+      </c>
+      <c r="B9" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>858</v>
+      </c>
+      <c r="B10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>860</v>
+      </c>
+      <c r="B11" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>862</v>
+      </c>
+      <c r="B12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>864</v>
+      </c>
+      <c r="B13" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>866</v>
+      </c>
+      <c r="B14" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>868</v>
+      </c>
+      <c r="B15" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>870</v>
+      </c>
+      <c r="B16" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>872</v>
+      </c>
+      <c r="B17" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>874</v>
+      </c>
+      <c r="B18" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>876</v>
+      </c>
+      <c r="B19" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>878</v>
+      </c>
+      <c r="B20" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>880</v>
+      </c>
+      <c r="B21" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>882</v>
+      </c>
+      <c r="B22" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>884</v>
+      </c>
+      <c r="B23" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>886</v>
+      </c>
+      <c r="B24" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>888</v>
+      </c>
+      <c r="B25" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>890</v>
+      </c>
+      <c r="B26" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>892</v>
+      </c>
+      <c r="B27" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>894</v>
+      </c>
+      <c r="B28" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>895</v>
+      </c>
+      <c r="B29" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>897</v>
+      </c>
+      <c r="B30" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>899</v>
+      </c>
+      <c r="B31" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>901</v>
+      </c>
+      <c r="B33" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>903</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>904</v>
+      </c>
+      <c r="B35" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>906</v>
+      </c>
+      <c r="B36" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>908</v>
+      </c>
+      <c r="B37" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>910</v>
+      </c>
+      <c r="B38" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>912</v>
+      </c>
+      <c r="B39" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>914</v>
+      </c>
+      <c r="B40" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>916</v>
+      </c>
+      <c r="B41" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>918</v>
+      </c>
+      <c r="B42" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>920</v>
+      </c>
+      <c r="B43" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>922</v>
+      </c>
+      <c r="B44" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>924</v>
+      </c>
+      <c r="B45" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>926</v>
+      </c>
+      <c r="B46" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>928</v>
+      </c>
+      <c r="B47" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>930</v>
+      </c>
+      <c r="B48" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>932</v>
+      </c>
+      <c r="B49" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>934</v>
+      </c>
+      <c r="B50" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>936</v>
+      </c>
+      <c r="B51" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>938</v>
+      </c>
+      <c r="B52" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>940</v>
+      </c>
+      <c r="B53" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>942</v>
+      </c>
+      <c r="B54" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>944</v>
+      </c>
+      <c r="B55" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>946</v>
+      </c>
+      <c r="B56" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B57" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>950</v>
+      </c>
+      <c r="B58" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>952</v>
+      </c>
+      <c r="B59" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>954</v>
+      </c>
+      <c r="B60" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>956</v>
+      </c>
+      <c r="B61" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>958</v>
+      </c>
+      <c r="B62" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>960</v>
+      </c>
+      <c r="B63" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>962</v>
+      </c>
+      <c r="B64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>964</v>
+      </c>
+      <c r="B65" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>966</v>
+      </c>
+      <c r="B66" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>968</v>
+      </c>
+      <c r="B67" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>970</v>
+      </c>
+      <c r="B68" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>972</v>
+      </c>
+      <c r="B69" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>974</v>
+      </c>
+      <c r="B70" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>976</v>
+      </c>
+      <c r="B71" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>978</v>
+      </c>
+      <c r="B72" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>980</v>
+      </c>
+      <c r="B73" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>982</v>
+      </c>
+      <c r="B74" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>984</v>
+      </c>
+      <c r="B75" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>986</v>
+      </c>
+      <c r="B76" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>557</v>
+      </c>
+      <c r="B77" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>538</v>
+      </c>
+      <c r="B78" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>989</v>
+      </c>
+      <c r="B79" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>991</v>
+      </c>
+      <c r="B80" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>993</v>
+      </c>
+      <c r="B81" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>995</v>
+      </c>
+      <c r="B82" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>998</v>
+      </c>
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CommonElements" sheetId="3" r:id="rId2"/>
     <sheet name="ContactDetails_Elements" sheetId="4" r:id="rId3"/>
-    <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId4"/>
-    <sheet name="AppDataEntryEmployementDetails" sheetId="6" r:id="rId5"/>
-    <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId6"/>
-    <sheet name="CDAppDataEntryCFIncomeDetails" sheetId="8" r:id="rId7"/>
+    <sheet name="ReferenceDetails_Elements" sheetId="9" r:id="rId4"/>
+    <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId5"/>
+    <sheet name="AppDataEntryEmployementDetails" sheetId="6" r:id="rId6"/>
+    <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId7"/>
+    <sheet name="CDAppDataEntryCFIncomeDetails" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1118">
   <si>
     <t>JSPath</t>
   </si>
@@ -742,9 +743,6 @@
     <t>document.querySelector('ion-segment-button[id="seg2"]')</t>
   </si>
   <si>
-    <t>statusTogglebtn</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-toggle')</t>
   </si>
   <si>
@@ -3032,6 +3030,351 @@
   </si>
   <si>
     <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>ReferenceDetails_FieldName</t>
+  </si>
+  <si>
+    <t>relationshipType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="relationshipType"]')</t>
+  </si>
+  <si>
+    <t>relationshipTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="relationshipType"] ion-label')</t>
+  </si>
+  <si>
+    <t>relationshipTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="relationshipType"] ion-select')</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"]')</t>
+  </si>
+  <si>
+    <t>salutationLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"] ion-label')</t>
+  </si>
+  <si>
+    <t>salutationDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"] ion-select')</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"]')</t>
+  </si>
+  <si>
+    <t>firstNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] ion-label')</t>
+  </si>
+  <si>
+    <t>firstNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] input')</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"]')</t>
+  </si>
+  <si>
+    <t>middleNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] ion-label')</t>
+  </si>
+  <si>
+    <t>middleNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] input')</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="custTname"]')</t>
+  </si>
+  <si>
+    <t>lastNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="custTname"] ion-label')</t>
+  </si>
+  <si>
+    <t>lastNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="custTname"] input')</t>
+  </si>
+  <si>
+    <t>custFullName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="custFullname"]')</t>
+  </si>
+  <si>
+    <t>custFullNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="custFullname"] ion-label')</t>
+  </si>
+  <si>
+    <t>custFullNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="custFullname"] input')</t>
+  </si>
+  <si>
+    <t>identificationType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idType"]')</t>
+  </si>
+  <si>
+    <t>identificationTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idType"] ion-label')</t>
+  </si>
+  <si>
+    <t>identificationTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idType"] ion-select')</t>
+  </si>
+  <si>
+    <t>identificationNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idNumber"]')</t>
+  </si>
+  <si>
+    <t>identificationNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>identificationNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idNumber"] input')</t>
+  </si>
+  <si>
+    <t>residenceAddress</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressRes"]')</t>
+  </si>
+  <si>
+    <t>residenceAddressLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressRes"] ion-label')</t>
+  </si>
+  <si>
+    <t>residenceAddressInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressRes"] textarea')</t>
+  </si>
+  <si>
+    <t>officeAddress</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressOff"]')</t>
+  </si>
+  <si>
+    <t>officeAddressLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressOff"] ion-label')</t>
+  </si>
+  <si>
+    <t>officeAddressInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressOff"] textarea')</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNo"]')</t>
+  </si>
+  <si>
+    <t>contactNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNo"] ion-label')</t>
+  </si>
+  <si>
+    <t>contactNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNo"] input')</t>
+  </si>
+  <si>
+    <t>officePhoneNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="phone1"]')</t>
+  </si>
+  <si>
+    <t>officePhoneNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="phone1"] ion-label')</t>
+  </si>
+  <si>
+    <t>officePhoneNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="phone1"] input')</t>
+  </si>
+  <si>
+    <t>primaryMobileNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile"]')</t>
+  </si>
+  <si>
+    <t>primaryMobileNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile"] ion-label')</t>
+  </si>
+  <si>
+    <t>primaryMobileNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile"] input')</t>
+  </si>
+  <si>
+    <t>alterMobileNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile2"]')</t>
+  </si>
+  <si>
+    <t>alterMobileNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile2"] ion-label')</t>
+  </si>
+  <si>
+    <t>alterMobileNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile2"] input')</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="email"]')</t>
+  </si>
+  <si>
+    <t>emailIdLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="email"] ion-label')</t>
+  </si>
+  <si>
+    <t>emailIdInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="email"] input')</t>
+  </si>
+  <si>
+    <t>noOfYearsKnown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsKnown"]')</t>
+  </si>
+  <si>
+    <t>noOfYearsKnownLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsKnown"] ion-label')</t>
+  </si>
+  <si>
+    <t>noOfYearsKnownInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsKnown"] input')</t>
+  </si>
+  <si>
+    <t>cifNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="coreBankingCifid"]')</t>
+  </si>
+  <si>
+    <t>cifNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="coreBankingCifid"] ion-label')</t>
+  </si>
+  <si>
+    <t>cifNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="coreBankingCifid"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="salutationDesc"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>listview_Salutation</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="salutationDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_Name</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="custFullname"]')</t>
+  </si>
+  <si>
+    <t>listview_MobileNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="mobile"]')</t>
+  </si>
+  <si>
+    <t>listview_YearsKnown</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="yearsKnown"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="yearsKnown"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>customerReferenceScreen</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="salutationDesc"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector(' span[class*="p-paginator-current"]')</t>
   </si>
 </sst>
 </file>
@@ -3459,10 +3802,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="143.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="143.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3536,16 +3879,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="147.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3878,15 +4221,15 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>39</v>
@@ -3894,66 +4237,90 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="1" t="s">
         <v>840</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>842</v>
+      <c r="A52" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3964,16 +4331,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="156.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="156.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4169,99 +4536,67 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>141</v>
+      <c r="A25" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>241</v>
+      <c r="A26" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4271,16 +4606,515 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="151.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="108.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="108.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4705,7 +5539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B151"/>
   <sheetViews>
@@ -4713,15 +5547,15 @@
       <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4729,71 +5563,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" t="s">
         <v>279</v>
-      </c>
-      <c r="B3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" t="s">
         <v>281</v>
-      </c>
-      <c r="B4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
         <v>283</v>
-      </c>
-      <c r="B5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
         <v>285</v>
-      </c>
-      <c r="B6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" t="s">
         <v>287</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
         <v>289</v>
-      </c>
-      <c r="B8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="s">
         <v>291</v>
-      </c>
-      <c r="B9" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
         <v>141</v>
@@ -4809,1007 +5643,1007 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
         <v>294</v>
-      </c>
-      <c r="B12" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
         <v>296</v>
-      </c>
-      <c r="B13" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
         <v>298</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" t="s">
         <v>300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" t="s">
         <v>302</v>
-      </c>
-      <c r="B16" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" t="s">
         <v>304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" t="s">
         <v>306</v>
-      </c>
-      <c r="B18" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" t="s">
         <v>308</v>
-      </c>
-      <c r="B19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" t="s">
         <v>310</v>
-      </c>
-      <c r="B20" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" t="s">
         <v>312</v>
-      </c>
-      <c r="B21" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
         <v>314</v>
-      </c>
-      <c r="B22" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" t="s">
         <v>316</v>
-      </c>
-      <c r="B23" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" t="s">
         <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" t="s">
         <v>320</v>
-      </c>
-      <c r="B25" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="s">
         <v>322</v>
-      </c>
-      <c r="B26" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" t="s">
         <v>324</v>
-      </c>
-      <c r="B27" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" t="s">
         <v>326</v>
-      </c>
-      <c r="B28" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>327</v>
+      </c>
+      <c r="B29" t="s">
         <v>328</v>
-      </c>
-      <c r="B29" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
         <v>330</v>
-      </c>
-      <c r="B30" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" t="s">
         <v>332</v>
-      </c>
-      <c r="B31" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" t="s">
         <v>334</v>
-      </c>
-      <c r="B32" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" t="s">
         <v>336</v>
-      </c>
-      <c r="B33" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34" t="s">
         <v>338</v>
-      </c>
-      <c r="B34" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" t="s">
         <v>340</v>
-      </c>
-      <c r="B35" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
         <v>342</v>
-      </c>
-      <c r="B36" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s">
         <v>344</v>
-      </c>
-      <c r="B37" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" t="s">
         <v>346</v>
-      </c>
-      <c r="B38" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" t="s">
         <v>348</v>
-      </c>
-      <c r="B39" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" t="s">
         <v>350</v>
-      </c>
-      <c r="B40" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" t="s">
         <v>352</v>
-      </c>
-      <c r="B41" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" t="s">
         <v>354</v>
-      </c>
-      <c r="B42" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B43" t="s">
         <v>356</v>
-      </c>
-      <c r="B43" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>357</v>
+      </c>
+      <c r="B44" t="s">
         <v>358</v>
-      </c>
-      <c r="B44" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>359</v>
+      </c>
+      <c r="B45" t="s">
         <v>360</v>
-      </c>
-      <c r="B45" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" t="s">
         <v>362</v>
-      </c>
-      <c r="B46" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B47" t="s">
         <v>364</v>
-      </c>
-      <c r="B47" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>365</v>
+      </c>
+      <c r="B48" t="s">
         <v>366</v>
-      </c>
-      <c r="B48" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B49" t="s">
         <v>368</v>
-      </c>
-      <c r="B49" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" t="s">
         <v>370</v>
-      </c>
-      <c r="B50" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" t="s">
         <v>372</v>
-      </c>
-      <c r="B51" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" t="s">
         <v>374</v>
-      </c>
-      <c r="B52" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>375</v>
+      </c>
+      <c r="B53" t="s">
         <v>376</v>
-      </c>
-      <c r="B53" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54" t="s">
         <v>378</v>
-      </c>
-      <c r="B54" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>379</v>
+      </c>
+      <c r="B55" t="s">
         <v>380</v>
-      </c>
-      <c r="B55" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>381</v>
+      </c>
+      <c r="B56" t="s">
         <v>382</v>
-      </c>
-      <c r="B56" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" t="s">
         <v>384</v>
-      </c>
-      <c r="B57" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>385</v>
+      </c>
+      <c r="B58" t="s">
         <v>386</v>
-      </c>
-      <c r="B58" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>387</v>
+      </c>
+      <c r="B59" t="s">
         <v>388</v>
-      </c>
-      <c r="B59" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" t="s">
         <v>390</v>
-      </c>
-      <c r="B60" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>391</v>
+      </c>
+      <c r="B61" t="s">
         <v>392</v>
-      </c>
-      <c r="B61" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62" t="s">
         <v>394</v>
-      </c>
-      <c r="B62" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>395</v>
+      </c>
+      <c r="B63" t="s">
         <v>396</v>
-      </c>
-      <c r="B63" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>397</v>
+      </c>
+      <c r="B64" t="s">
         <v>398</v>
-      </c>
-      <c r="B64" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B65" t="s">
         <v>400</v>
-      </c>
-      <c r="B65" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>401</v>
+      </c>
+      <c r="B66" t="s">
         <v>402</v>
-      </c>
-      <c r="B66" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67" t="s">
         <v>404</v>
-      </c>
-      <c r="B67" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>405</v>
+      </c>
+      <c r="B68" t="s">
         <v>406</v>
-      </c>
-      <c r="B68" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>407</v>
+      </c>
+      <c r="B69" t="s">
         <v>408</v>
-      </c>
-      <c r="B69" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" t="s">
         <v>410</v>
-      </c>
-      <c r="B70" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>411</v>
+      </c>
+      <c r="B71" t="s">
         <v>412</v>
-      </c>
-      <c r="B71" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" t="s">
         <v>414</v>
-      </c>
-      <c r="B72" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>415</v>
+      </c>
+      <c r="B73" t="s">
         <v>416</v>
-      </c>
-      <c r="B73" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>417</v>
+      </c>
+      <c r="B74" t="s">
         <v>418</v>
-      </c>
-      <c r="B74" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>419</v>
+      </c>
+      <c r="B75" t="s">
         <v>420</v>
-      </c>
-      <c r="B75" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>421</v>
+      </c>
+      <c r="B76" t="s">
         <v>422</v>
-      </c>
-      <c r="B76" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>423</v>
+      </c>
+      <c r="B77" t="s">
         <v>424</v>
-      </c>
-      <c r="B77" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>425</v>
+      </c>
+      <c r="B78" t="s">
         <v>426</v>
-      </c>
-      <c r="B78" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>427</v>
+      </c>
+      <c r="B79" t="s">
         <v>428</v>
-      </c>
-      <c r="B79" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>429</v>
+      </c>
+      <c r="B80" t="s">
         <v>430</v>
-      </c>
-      <c r="B80" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>431</v>
+      </c>
+      <c r="B81" t="s">
         <v>432</v>
-      </c>
-      <c r="B81" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>433</v>
+      </c>
+      <c r="B82" t="s">
         <v>434</v>
-      </c>
-      <c r="B82" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>435</v>
+      </c>
+      <c r="B83" t="s">
         <v>436</v>
-      </c>
-      <c r="B83" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
+        <v>437</v>
+      </c>
+      <c r="B84" t="s">
         <v>438</v>
-      </c>
-      <c r="B84" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>439</v>
+      </c>
+      <c r="B85" t="s">
         <v>440</v>
-      </c>
-      <c r="B85" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>441</v>
+      </c>
+      <c r="B86" t="s">
         <v>442</v>
-      </c>
-      <c r="B86" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>443</v>
+      </c>
+      <c r="B87" t="s">
         <v>444</v>
-      </c>
-      <c r="B87" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
+        <v>445</v>
+      </c>
+      <c r="B88" t="s">
         <v>446</v>
-      </c>
-      <c r="B88" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>447</v>
+      </c>
+      <c r="B89" t="s">
         <v>448</v>
-      </c>
-      <c r="B89" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>449</v>
+      </c>
+      <c r="B90" t="s">
         <v>450</v>
-      </c>
-      <c r="B90" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>451</v>
+      </c>
+      <c r="B91" t="s">
         <v>452</v>
-      </c>
-      <c r="B91" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>453</v>
+      </c>
+      <c r="B92" t="s">
         <v>454</v>
-      </c>
-      <c r="B92" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>455</v>
+      </c>
+      <c r="B93" t="s">
         <v>456</v>
-      </c>
-      <c r="B93" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94" t="s">
         <v>458</v>
-      </c>
-      <c r="B94" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>459</v>
+      </c>
+      <c r="B95" t="s">
         <v>460</v>
-      </c>
-      <c r="B95" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
+        <v>461</v>
+      </c>
+      <c r="B96" t="s">
         <v>462</v>
-      </c>
-      <c r="B96" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" t="s">
         <v>464</v>
-      </c>
-      <c r="B97" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>465</v>
+      </c>
+      <c r="B98" t="s">
         <v>466</v>
-      </c>
-      <c r="B98" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>467</v>
+      </c>
+      <c r="B99" t="s">
         <v>468</v>
-      </c>
-      <c r="B99" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>469</v>
+      </c>
+      <c r="B100" t="s">
         <v>470</v>
-      </c>
-      <c r="B100" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
+        <v>471</v>
+      </c>
+      <c r="B101" t="s">
         <v>472</v>
-      </c>
-      <c r="B101" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>473</v>
+      </c>
+      <c r="B102" t="s">
         <v>474</v>
-      </c>
-      <c r="B102" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>475</v>
+      </c>
+      <c r="B103" t="s">
         <v>476</v>
-      </c>
-      <c r="B103" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>477</v>
+      </c>
+      <c r="B104" t="s">
         <v>478</v>
-      </c>
-      <c r="B104" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
+        <v>479</v>
+      </c>
+      <c r="B105" t="s">
         <v>480</v>
-      </c>
-      <c r="B105" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
+        <v>481</v>
+      </c>
+      <c r="B106" t="s">
         <v>482</v>
-      </c>
-      <c r="B106" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>483</v>
+      </c>
+      <c r="B107" t="s">
         <v>484</v>
-      </c>
-      <c r="B107" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>485</v>
+      </c>
+      <c r="B108" t="s">
         <v>486</v>
-      </c>
-      <c r="B108" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
+        <v>487</v>
+      </c>
+      <c r="B109" t="s">
         <v>488</v>
-      </c>
-      <c r="B109" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
+        <v>489</v>
+      </c>
+      <c r="B110" t="s">
         <v>490</v>
-      </c>
-      <c r="B110" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
+        <v>491</v>
+      </c>
+      <c r="B111" t="s">
         <v>492</v>
-      </c>
-      <c r="B111" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
+        <v>493</v>
+      </c>
+      <c r="B112" t="s">
         <v>494</v>
-      </c>
-      <c r="B112" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
+        <v>495</v>
+      </c>
+      <c r="B113" t="s">
         <v>496</v>
-      </c>
-      <c r="B113" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>497</v>
+      </c>
+      <c r="B114" t="s">
         <v>498</v>
-      </c>
-      <c r="B114" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>499</v>
+      </c>
+      <c r="B115" t="s">
         <v>500</v>
-      </c>
-      <c r="B115" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>501</v>
+      </c>
+      <c r="B116" t="s">
         <v>502</v>
-      </c>
-      <c r="B116" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
+        <v>503</v>
+      </c>
+      <c r="B117" t="s">
         <v>504</v>
-      </c>
-      <c r="B117" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
+        <v>505</v>
+      </c>
+      <c r="B118" t="s">
         <v>506</v>
-      </c>
-      <c r="B118" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>507</v>
+      </c>
+      <c r="B119" t="s">
         <v>508</v>
-      </c>
-      <c r="B119" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>509</v>
+      </c>
+      <c r="B120" t="s">
         <v>510</v>
-      </c>
-      <c r="B120" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>511</v>
+      </c>
+      <c r="B121" t="s">
         <v>512</v>
-      </c>
-      <c r="B121" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>513</v>
+      </c>
+      <c r="B122" t="s">
         <v>514</v>
-      </c>
-      <c r="B122" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
+        <v>515</v>
+      </c>
+      <c r="B123" t="s">
         <v>516</v>
-      </c>
-      <c r="B123" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
+        <v>517</v>
+      </c>
+      <c r="B124" t="s">
         <v>518</v>
-      </c>
-      <c r="B124" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>519</v>
+      </c>
+      <c r="B125" t="s">
         <v>520</v>
-      </c>
-      <c r="B125" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
+        <v>521</v>
+      </c>
+      <c r="B126" t="s">
         <v>522</v>
-      </c>
-      <c r="B126" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>523</v>
+      </c>
+      <c r="B127" t="s">
         <v>524</v>
-      </c>
-      <c r="B127" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>525</v>
+      </c>
+      <c r="B128" t="s">
         <v>526</v>
-      </c>
-      <c r="B128" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>527</v>
+      </c>
+      <c r="B129" t="s">
         <v>528</v>
-      </c>
-      <c r="B129" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
+        <v>529</v>
+      </c>
+      <c r="B130" t="s">
         <v>530</v>
-      </c>
-      <c r="B130" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>531</v>
+      </c>
+      <c r="B131" t="s">
         <v>532</v>
-      </c>
-      <c r="B131" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>533</v>
+      </c>
+      <c r="B132" t="s">
         <v>534</v>
-      </c>
-      <c r="B132" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>535</v>
+      </c>
+      <c r="B133" t="s">
         <v>536</v>
-      </c>
-      <c r="B133" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>537</v>
+      </c>
+      <c r="B134" t="s">
         <v>538</v>
-      </c>
-      <c r="B134" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
+        <v>539</v>
+      </c>
+      <c r="B135" t="s">
         <v>540</v>
-      </c>
-      <c r="B135" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>541</v>
+      </c>
+      <c r="B136" t="s">
         <v>542</v>
-      </c>
-      <c r="B136" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B137" t="s">
         <v>44</v>
@@ -5817,95 +6651,95 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B138" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" t="s">
         <v>270</v>
-      </c>
-      <c r="B139" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>546</v>
+      </c>
+      <c r="B141" t="s">
         <v>547</v>
-      </c>
-      <c r="B141" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>548</v>
+      </c>
+      <c r="B142" t="s">
         <v>549</v>
-      </c>
-      <c r="B142" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>550</v>
+      </c>
+      <c r="B143" t="s">
         <v>551</v>
-      </c>
-      <c r="B143" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>552</v>
+      </c>
+      <c r="B144" t="s">
         <v>553</v>
-      </c>
-      <c r="B144" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
+        <v>554</v>
+      </c>
+      <c r="B145" t="s">
         <v>555</v>
-      </c>
-      <c r="B145" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
+        <v>556</v>
+      </c>
+      <c r="B146" t="s">
         <v>557</v>
-      </c>
-      <c r="B146" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
+        <v>558</v>
+      </c>
+      <c r="B147" t="s">
         <v>559</v>
-      </c>
-      <c r="B147" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
+        <v>260</v>
+      </c>
+      <c r="B148" t="s">
         <v>261</v>
-      </c>
-      <c r="B148" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B149" t="s">
         <v>39</v>
@@ -5913,18 +6747,18 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
+        <v>560</v>
+      </c>
+      <c r="B150" t="s">
         <v>561</v>
-      </c>
-      <c r="B150" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
+        <v>556</v>
+      </c>
+      <c r="B151" t="s">
         <v>557</v>
-      </c>
-      <c r="B151" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5932,7 +6766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
@@ -5940,15 +6774,15 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="136.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="136.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -5956,84 +6790,84 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B6" t="s">
         <v>565</v>
-      </c>
-      <c r="B6" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" t="s">
         <v>567</v>
-      </c>
-      <c r="B7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" t="s">
         <v>569</v>
-      </c>
-      <c r="B8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" t="s">
         <v>571</v>
-      </c>
-      <c r="B9" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" t="s">
         <v>573</v>
-      </c>
-      <c r="B10" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" t="s">
         <v>575</v>
-      </c>
-      <c r="B11" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" t="s">
         <v>577</v>
-      </c>
-      <c r="B12" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" t="s">
         <v>579</v>
-      </c>
-      <c r="B13" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" t="s">
         <v>582</v>
-      </c>
-      <c r="B18" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6042,351 +6876,351 @@
     </row>
     <row r="20" spans="1:2" ht="22.5" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="21" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22.5" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>588</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="21.75" customHeight="1">
       <c r="A23" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>592</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>596</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1">
       <c r="A27" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>600</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>604</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19.5" customHeight="1">
       <c r="A31" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>606</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="23.25" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="22.5" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>612</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="24.75" customHeight="1">
       <c r="A35" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>614</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="21" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="21" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>620</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" customHeight="1">
       <c r="A39" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>622</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="21" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>626</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>628</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="22.5" customHeight="1">
       <c r="A43" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="21.75" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>632</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="21.75" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>634</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>636</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27.75" customHeight="1">
       <c r="A47" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>638</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="23.25" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>640</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" customHeight="1">
       <c r="A49" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>642</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="21" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>644</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" customHeight="1">
       <c r="A51" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>646</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="21" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="23.25" customHeight="1">
       <c r="A53" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>650</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="22.5" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>652</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25" customHeight="1">
       <c r="A55" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="19.5" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>656</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="19.5" customHeight="1">
       <c r="A57" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>658</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="23.25" customHeight="1">
       <c r="A58" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="22.5" customHeight="1">
       <c r="A59" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>662</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27.75" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="22.5" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>668</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>44</v>
@@ -6394,615 +7228,615 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B66" t="s">
         <v>671</v>
-      </c>
-      <c r="B66" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>672</v>
+      </c>
+      <c r="B67" t="s">
         <v>673</v>
-      </c>
-      <c r="B67" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>674</v>
+      </c>
+      <c r="B68" t="s">
         <v>675</v>
-      </c>
-      <c r="B68" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>676</v>
+      </c>
+      <c r="B69" t="s">
         <v>677</v>
-      </c>
-      <c r="B69" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>678</v>
+      </c>
+      <c r="B70" t="s">
         <v>679</v>
-      </c>
-      <c r="B70" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>680</v>
+      </c>
+      <c r="B71" t="s">
         <v>681</v>
-      </c>
-      <c r="B71" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>682</v>
+      </c>
+      <c r="B72" t="s">
         <v>683</v>
-      </c>
-      <c r="B72" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>684</v>
+      </c>
+      <c r="B73" t="s">
         <v>685</v>
-      </c>
-      <c r="B73" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>686</v>
+      </c>
+      <c r="B74" t="s">
         <v>687</v>
-      </c>
-      <c r="B74" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>688</v>
+      </c>
+      <c r="B75" t="s">
         <v>689</v>
-      </c>
-      <c r="B75" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>690</v>
+      </c>
+      <c r="B76" t="s">
         <v>691</v>
-      </c>
-      <c r="B76" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>692</v>
+      </c>
+      <c r="B77" t="s">
         <v>693</v>
-      </c>
-      <c r="B77" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>694</v>
+      </c>
+      <c r="B78" t="s">
         <v>695</v>
-      </c>
-      <c r="B78" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>696</v>
+      </c>
+      <c r="B79" t="s">
         <v>697</v>
-      </c>
-      <c r="B79" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>698</v>
+      </c>
+      <c r="B80" t="s">
         <v>699</v>
-      </c>
-      <c r="B80" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>700</v>
+      </c>
+      <c r="B81" t="s">
         <v>701</v>
-      </c>
-      <c r="B81" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>702</v>
+      </c>
+      <c r="B82" t="s">
         <v>703</v>
-      </c>
-      <c r="B82" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>704</v>
+      </c>
+      <c r="B83" t="s">
         <v>705</v>
-      </c>
-      <c r="B83" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
+        <v>706</v>
+      </c>
+      <c r="B84" t="s">
         <v>707</v>
-      </c>
-      <c r="B84" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>708</v>
+      </c>
+      <c r="B85" t="s">
         <v>709</v>
-      </c>
-      <c r="B85" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>710</v>
+      </c>
+      <c r="B86" t="s">
         <v>711</v>
-      </c>
-      <c r="B86" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>712</v>
+      </c>
+      <c r="B87" t="s">
         <v>713</v>
-      </c>
-      <c r="B87" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
+        <v>714</v>
+      </c>
+      <c r="B88" t="s">
         <v>715</v>
-      </c>
-      <c r="B88" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>716</v>
+      </c>
+      <c r="B89" t="s">
         <v>717</v>
-      </c>
-      <c r="B89" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>718</v>
+      </c>
+      <c r="B90" t="s">
         <v>719</v>
-      </c>
-      <c r="B90" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>720</v>
+      </c>
+      <c r="B91" t="s">
         <v>721</v>
-      </c>
-      <c r="B91" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>722</v>
+      </c>
+      <c r="B92" t="s">
         <v>723</v>
-      </c>
-      <c r="B92" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>724</v>
+      </c>
+      <c r="B93" t="s">
         <v>725</v>
-      </c>
-      <c r="B93" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>726</v>
+      </c>
+      <c r="B94" t="s">
         <v>727</v>
-      </c>
-      <c r="B94" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>728</v>
+      </c>
+      <c r="B95" t="s">
         <v>729</v>
-      </c>
-      <c r="B95" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
+        <v>730</v>
+      </c>
+      <c r="B96" t="s">
         <v>731</v>
-      </c>
-      <c r="B96" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
+        <v>732</v>
+      </c>
+      <c r="B97" t="s">
         <v>733</v>
-      </c>
-      <c r="B97" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>734</v>
+      </c>
+      <c r="B98" t="s">
         <v>735</v>
-      </c>
-      <c r="B98" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>736</v>
+      </c>
+      <c r="B99" t="s">
         <v>737</v>
-      </c>
-      <c r="B99" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>738</v>
+      </c>
+      <c r="B100" t="s">
         <v>739</v>
-      </c>
-      <c r="B100" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
+        <v>740</v>
+      </c>
+      <c r="B101" t="s">
         <v>741</v>
-      </c>
-      <c r="B101" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>742</v>
+      </c>
+      <c r="B102" t="s">
         <v>743</v>
-      </c>
-      <c r="B102" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>744</v>
+      </c>
+      <c r="B103" t="s">
         <v>745</v>
-      </c>
-      <c r="B103" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>746</v>
+      </c>
+      <c r="B104" t="s">
         <v>747</v>
-      </c>
-      <c r="B104" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
+        <v>748</v>
+      </c>
+      <c r="B105" t="s">
         <v>749</v>
-      </c>
-      <c r="B105" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
+        <v>750</v>
+      </c>
+      <c r="B106" t="s">
         <v>751</v>
-      </c>
-      <c r="B106" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>752</v>
+      </c>
+      <c r="B107" t="s">
         <v>753</v>
-      </c>
-      <c r="B107" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>754</v>
+      </c>
+      <c r="B108" t="s">
         <v>755</v>
-      </c>
-      <c r="B108" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
+        <v>756</v>
+      </c>
+      <c r="B109" t="s">
         <v>757</v>
-      </c>
-      <c r="B109" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
+        <v>758</v>
+      </c>
+      <c r="B110" t="s">
         <v>759</v>
-      </c>
-      <c r="B110" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
+        <v>760</v>
+      </c>
+      <c r="B111" t="s">
         <v>761</v>
-      </c>
-      <c r="B111" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
+        <v>762</v>
+      </c>
+      <c r="B112" t="s">
         <v>763</v>
-      </c>
-      <c r="B112" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
+        <v>764</v>
+      </c>
+      <c r="B113" t="s">
         <v>765</v>
-      </c>
-      <c r="B113" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>766</v>
+      </c>
+      <c r="B114" t="s">
         <v>767</v>
-      </c>
-      <c r="B114" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>768</v>
+      </c>
+      <c r="B115" t="s">
         <v>769</v>
-      </c>
-      <c r="B115" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>770</v>
+      </c>
+      <c r="B116" t="s">
         <v>771</v>
-      </c>
-      <c r="B116" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
+        <v>772</v>
+      </c>
+      <c r="B117" t="s">
         <v>773</v>
-      </c>
-      <c r="B117" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
+        <v>774</v>
+      </c>
+      <c r="B118" t="s">
         <v>775</v>
-      </c>
-      <c r="B118" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>776</v>
+      </c>
+      <c r="B119" t="s">
         <v>777</v>
-      </c>
-      <c r="B119" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>778</v>
+      </c>
+      <c r="B120" t="s">
         <v>779</v>
-      </c>
-      <c r="B120" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>780</v>
+      </c>
+      <c r="B121" t="s">
         <v>781</v>
-      </c>
-      <c r="B121" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>782</v>
+      </c>
+      <c r="B122" t="s">
         <v>783</v>
-      </c>
-      <c r="B122" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
+        <v>784</v>
+      </c>
+      <c r="B123" t="s">
         <v>785</v>
-      </c>
-      <c r="B123" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
+        <v>786</v>
+      </c>
+      <c r="B124" t="s">
         <v>787</v>
-      </c>
-      <c r="B124" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>788</v>
+      </c>
+      <c r="B125" t="s">
         <v>789</v>
-      </c>
-      <c r="B125" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
+        <v>790</v>
+      </c>
+      <c r="B126" t="s">
         <v>791</v>
-      </c>
-      <c r="B126" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>792</v>
+      </c>
+      <c r="B127" t="s">
         <v>793</v>
-      </c>
-      <c r="B127" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>794</v>
+      </c>
+      <c r="B128" t="s">
         <v>795</v>
-      </c>
-      <c r="B128" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>796</v>
+      </c>
+      <c r="B129" t="s">
         <v>797</v>
-      </c>
-      <c r="B129" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
+        <v>798</v>
+      </c>
+      <c r="B130" t="s">
         <v>799</v>
-      </c>
-      <c r="B130" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>800</v>
+      </c>
+      <c r="B131" t="s">
         <v>801</v>
-      </c>
-      <c r="B131" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>802</v>
+      </c>
+      <c r="B132" t="s">
         <v>803</v>
-      </c>
-      <c r="B132" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>804</v>
+      </c>
+      <c r="B133" t="s">
         <v>805</v>
-      </c>
-      <c r="B133" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>806</v>
+      </c>
+      <c r="B134" t="s">
         <v>807</v>
-      </c>
-      <c r="B134" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
+        <v>808</v>
+      </c>
+      <c r="B135" t="s">
         <v>809</v>
-      </c>
-      <c r="B135" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B136" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
+        <v>811</v>
+      </c>
+      <c r="B137" t="s">
         <v>812</v>
-      </c>
-      <c r="B137" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
+        <v>813</v>
+      </c>
+      <c r="B138" t="s">
         <v>814</v>
-      </c>
-      <c r="B138" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>815</v>
+      </c>
+      <c r="B139" t="s">
         <v>816</v>
-      </c>
-      <c r="B139" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>817</v>
+      </c>
+      <c r="B140" t="s">
         <v>818</v>
-      </c>
-      <c r="B140" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>819</v>
+      </c>
+      <c r="B141" t="s">
         <v>820</v>
-      </c>
-      <c r="B141" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B142" t="s">
         <v>44</v>
@@ -7010,68 +7844,68 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>822</v>
+      </c>
+      <c r="B144" t="s">
         <v>823</v>
-      </c>
-      <c r="B144" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
+        <v>825</v>
+      </c>
+      <c r="B148" t="s">
         <v>826</v>
-      </c>
-      <c r="B148" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
+        <v>827</v>
+      </c>
+      <c r="B149" t="s">
         <v>828</v>
-      </c>
-      <c r="B149" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
+        <v>829</v>
+      </c>
+      <c r="B150" t="s">
         <v>830</v>
-      </c>
-      <c r="B150" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
+        <v>831</v>
+      </c>
+      <c r="B152" t="s">
         <v>832</v>
       </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="153" spans="1:2" ht="15.6">
+      <c r="A153" s="11" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75">
-      <c r="A153" s="11" t="s">
+      <c r="B153" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="B153" s="11" t="s">
+    </row>
+    <row r="155" spans="1:2" ht="15.6">
+      <c r="A155" s="12" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75">
-      <c r="A155" s="12" t="s">
+    <row r="157" spans="1:2" ht="15.6">
+      <c r="A157" s="11" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75">
-      <c r="A157" s="11" t="s">
+      <c r="B157" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -7079,23 +7913,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="179.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -7103,263 +7937,263 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" t="s">
         <v>561</v>
-      </c>
-      <c r="B2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" t="s">
         <v>844</v>
-      </c>
-      <c r="B3" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B4" t="s">
         <v>846</v>
-      </c>
-      <c r="B4" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B5" t="s">
         <v>848</v>
-      </c>
-      <c r="B5" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>849</v>
+      </c>
+      <c r="B6" t="s">
         <v>850</v>
-      </c>
-      <c r="B6" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B7" t="s">
         <v>852</v>
-      </c>
-      <c r="B7" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>853</v>
+      </c>
+      <c r="B8" t="s">
         <v>854</v>
-      </c>
-      <c r="B8" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>855</v>
+      </c>
+      <c r="B9" t="s">
         <v>856</v>
-      </c>
-      <c r="B9" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>857</v>
+      </c>
+      <c r="B10" t="s">
         <v>858</v>
-      </c>
-      <c r="B10" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>859</v>
+      </c>
+      <c r="B11" t="s">
         <v>860</v>
-      </c>
-      <c r="B11" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>861</v>
+      </c>
+      <c r="B12" t="s">
         <v>862</v>
-      </c>
-      <c r="B12" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>863</v>
+      </c>
+      <c r="B13" t="s">
         <v>864</v>
-      </c>
-      <c r="B13" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>865</v>
+      </c>
+      <c r="B14" t="s">
         <v>866</v>
-      </c>
-      <c r="B14" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>867</v>
+      </c>
+      <c r="B15" t="s">
         <v>868</v>
-      </c>
-      <c r="B15" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>869</v>
+      </c>
+      <c r="B16" t="s">
         <v>870</v>
-      </c>
-      <c r="B16" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>871</v>
+      </c>
+      <c r="B17" t="s">
         <v>872</v>
-      </c>
-      <c r="B17" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>873</v>
+      </c>
+      <c r="B18" t="s">
         <v>874</v>
-      </c>
-      <c r="B18" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>875</v>
+      </c>
+      <c r="B19" t="s">
         <v>876</v>
-      </c>
-      <c r="B19" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>877</v>
+      </c>
+      <c r="B20" t="s">
         <v>878</v>
-      </c>
-      <c r="B20" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>879</v>
+      </c>
+      <c r="B21" t="s">
         <v>880</v>
-      </c>
-      <c r="B21" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>881</v>
+      </c>
+      <c r="B22" t="s">
         <v>882</v>
-      </c>
-      <c r="B22" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>883</v>
+      </c>
+      <c r="B23" t="s">
         <v>884</v>
-      </c>
-      <c r="B23" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>885</v>
+      </c>
+      <c r="B24" t="s">
         <v>886</v>
-      </c>
-      <c r="B24" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>887</v>
+      </c>
+      <c r="B25" t="s">
         <v>888</v>
-      </c>
-      <c r="B25" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>889</v>
+      </c>
+      <c r="B26" t="s">
         <v>890</v>
-      </c>
-      <c r="B26" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>891</v>
+      </c>
+      <c r="B27" t="s">
         <v>892</v>
-      </c>
-      <c r="B27" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>894</v>
+      </c>
+      <c r="B29" t="s">
         <v>895</v>
-      </c>
-      <c r="B29" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>896</v>
+      </c>
+      <c r="B30" t="s">
         <v>897</v>
-      </c>
-      <c r="B30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>898</v>
+      </c>
+      <c r="B31" t="s">
         <v>899</v>
-      </c>
-      <c r="B31" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B32" t="s">
         <v>555</v>
-      </c>
-      <c r="B32" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>900</v>
+      </c>
+      <c r="B33" t="s">
         <v>901</v>
-      </c>
-      <c r="B33" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B34" t="s">
         <v>141</v>
@@ -7367,399 +8201,399 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>903</v>
+      </c>
+      <c r="B35" t="s">
         <v>904</v>
-      </c>
-      <c r="B35" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>905</v>
+      </c>
+      <c r="B36" t="s">
         <v>906</v>
-      </c>
-      <c r="B36" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>907</v>
+      </c>
+      <c r="B37" t="s">
         <v>908</v>
-      </c>
-      <c r="B37" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>909</v>
+      </c>
+      <c r="B38" t="s">
         <v>910</v>
-      </c>
-      <c r="B38" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>911</v>
+      </c>
+      <c r="B39" t="s">
         <v>912</v>
-      </c>
-      <c r="B39" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>913</v>
+      </c>
+      <c r="B40" t="s">
         <v>914</v>
-      </c>
-      <c r="B40" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>915</v>
+      </c>
+      <c r="B41" t="s">
         <v>916</v>
-      </c>
-      <c r="B41" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>917</v>
+      </c>
+      <c r="B42" t="s">
         <v>918</v>
-      </c>
-      <c r="B42" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>919</v>
+      </c>
+      <c r="B43" t="s">
         <v>920</v>
-      </c>
-      <c r="B43" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>921</v>
+      </c>
+      <c r="B44" t="s">
         <v>922</v>
-      </c>
-      <c r="B44" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>923</v>
+      </c>
+      <c r="B45" t="s">
         <v>924</v>
-      </c>
-      <c r="B45" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>925</v>
+      </c>
+      <c r="B46" t="s">
         <v>926</v>
-      </c>
-      <c r="B46" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>927</v>
+      </c>
+      <c r="B47" t="s">
         <v>928</v>
-      </c>
-      <c r="B47" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>929</v>
+      </c>
+      <c r="B48" t="s">
         <v>930</v>
-      </c>
-      <c r="B48" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>931</v>
+      </c>
+      <c r="B49" t="s">
         <v>932</v>
-      </c>
-      <c r="B49" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>933</v>
+      </c>
+      <c r="B50" t="s">
         <v>934</v>
-      </c>
-      <c r="B50" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>935</v>
+      </c>
+      <c r="B51" t="s">
         <v>936</v>
-      </c>
-      <c r="B51" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>937</v>
+      </c>
+      <c r="B52" t="s">
         <v>938</v>
-      </c>
-      <c r="B52" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>939</v>
+      </c>
+      <c r="B53" t="s">
         <v>940</v>
-      </c>
-      <c r="B53" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>941</v>
+      </c>
+      <c r="B54" t="s">
         <v>942</v>
-      </c>
-      <c r="B54" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>943</v>
+      </c>
+      <c r="B55" t="s">
         <v>944</v>
-      </c>
-      <c r="B55" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>945</v>
+      </c>
+      <c r="B56" t="s">
         <v>946</v>
-      </c>
-      <c r="B56" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>947</v>
+      </c>
+      <c r="B57" t="s">
         <v>948</v>
-      </c>
-      <c r="B57" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>949</v>
+      </c>
+      <c r="B58" t="s">
         <v>950</v>
-      </c>
-      <c r="B58" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>951</v>
+      </c>
+      <c r="B59" t="s">
         <v>952</v>
-      </c>
-      <c r="B59" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>953</v>
+      </c>
+      <c r="B60" t="s">
         <v>954</v>
-      </c>
-      <c r="B60" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>955</v>
+      </c>
+      <c r="B61" t="s">
         <v>956</v>
-      </c>
-      <c r="B61" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>957</v>
+      </c>
+      <c r="B62" t="s">
         <v>958</v>
-      </c>
-      <c r="B62" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>959</v>
+      </c>
+      <c r="B63" t="s">
         <v>960</v>
-      </c>
-      <c r="B63" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>961</v>
+      </c>
+      <c r="B64" t="s">
         <v>962</v>
-      </c>
-      <c r="B64" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>963</v>
+      </c>
+      <c r="B65" t="s">
         <v>964</v>
-      </c>
-      <c r="B65" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>965</v>
+      </c>
+      <c r="B66" t="s">
         <v>966</v>
-      </c>
-      <c r="B66" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>967</v>
+      </c>
+      <c r="B67" t="s">
         <v>968</v>
-      </c>
-      <c r="B67" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>969</v>
+      </c>
+      <c r="B68" t="s">
         <v>970</v>
-      </c>
-      <c r="B68" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>971</v>
+      </c>
+      <c r="B69" t="s">
         <v>972</v>
-      </c>
-      <c r="B69" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>973</v>
+      </c>
+      <c r="B70" t="s">
         <v>974</v>
-      </c>
-      <c r="B70" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>975</v>
+      </c>
+      <c r="B71" t="s">
         <v>976</v>
-      </c>
-      <c r="B71" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>977</v>
+      </c>
+      <c r="B72" t="s">
         <v>978</v>
-      </c>
-      <c r="B72" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>979</v>
+      </c>
+      <c r="B73" t="s">
         <v>980</v>
-      </c>
-      <c r="B73" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>981</v>
+      </c>
+      <c r="B74" t="s">
         <v>982</v>
-      </c>
-      <c r="B74" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>983</v>
+      </c>
+      <c r="B75" t="s">
         <v>984</v>
-      </c>
-      <c r="B75" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>985</v>
+      </c>
+      <c r="B76" t="s">
         <v>986</v>
-      </c>
-      <c r="B76" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>556</v>
+      </c>
+      <c r="B77" t="s">
         <v>557</v>
-      </c>
-      <c r="B77" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B78" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>988</v>
+      </c>
+      <c r="B79" t="s">
         <v>989</v>
-      </c>
-      <c r="B79" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>990</v>
+      </c>
+      <c r="B80" t="s">
         <v>991</v>
-      </c>
-      <c r="B80" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>992</v>
+      </c>
+      <c r="B81" t="s">
         <v>993</v>
-      </c>
-      <c r="B81" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>994</v>
+      </c>
+      <c r="B82" t="s">
         <v>995</v>
-      </c>
-      <c r="B82" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
@@ -7767,26 +8601,26 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>999</v>
+      </c>
+      <c r="B86" t="s">
         <v>1000</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B87" t="s">
         <v>1002</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1003</v>
       </c>
     </row>
   </sheetData>

--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,16 @@
     <sheet name="ReferenceDetails_Elements" sheetId="9" r:id="rId4"/>
     <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId5"/>
     <sheet name="AppDataEntryEmployementDetails" sheetId="6" r:id="rId6"/>
-    <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId7"/>
-    <sheet name="CDAppDataEntryCFIncomeDetails" sheetId="8" r:id="rId8"/>
+    <sheet name="CDAppDataEntryCFIncomeDetails" sheetId="8" r:id="rId7"/>
+    <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId8"/>
+    <sheet name="ADE_IdentificationDet_610" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1151">
   <si>
     <t>JSPath</t>
   </si>
@@ -3375,13 +3376,112 @@
   </si>
   <si>
     <t>document.querySelector('[ng-reflect-field="salutationDesc"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector(' span[class*="p-paginator-current"]')</t>
+  </si>
+  <si>
+    <t>IdentificationDetails_FieldName</t>
+  </si>
+  <si>
+    <t>backBtn_UnderCustomerDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>Id_Type_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="ID Type tooltip"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Id_Number_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="idNumber"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>Issue_Date_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"').firstElementChild.querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>Expiry_Date_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EXPIRY_DATE.TOOLTIP"').firstElementChild.querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>IssuingAuthority_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Issuing Authority"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>CountryOfIssue_UnderCustomerIdentificationDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Country of Issue"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>primaryIdFlag</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="isBase"]').querySelector('ion-toggle')</t>
+  </si>
+  <si>
+    <t>getAtribute_InIssueDate_610</t>
+  </si>
+  <si>
+    <t>getAtribute_InExpiryeDate_610</t>
+  </si>
+  <si>
+    <t>List View</t>
+  </si>
+  <si>
+    <t>IdTypeLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="idTypeDesc"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="idNumber"]')</t>
+  </si>
+  <si>
+    <t>DateOfissueLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="dateOfIssue"]')</t>
+  </si>
+  <si>
+    <t>PlaceOfIssueLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="placeOfIssueDesc"]')</t>
+  </si>
+  <si>
+    <t>DateOfExpiryLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="dateOfExpiry"]')</t>
+  </si>
+  <si>
+    <t>PrimaryIdFlagLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="isBase"]')</t>
+  </si>
+  <si>
+    <t>StatusLV</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="recStatus"]')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3403,6 +3503,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3482,7 +3589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3492,16 +3599,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3802,10 +3911,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="143.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="143.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3879,16 +3988,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="147.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4284,10 +4393,10 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>839</v>
       </c>
     </row>
@@ -4321,6 +4430,22 @@
       </c>
       <c r="B54" s="4" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -4337,10 +4462,10 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="156.88671875" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="156.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4608,14 +4733,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="151.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="151.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5111,10 +5236,10 @@
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
-    <col min="2" max="2" width="108.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5547,10 +5672,10 @@
       <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6768,1144 +6893,712 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" customWidth="1"/>
-    <col min="2" max="2" width="136.109375" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" t="s">
+        <v>844</v>
+      </c>
+    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>563</v>
+      <c r="A4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B5" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>849</v>
       </c>
       <c r="B6" t="s">
-        <v>565</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>851</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>568</v>
+        <v>853</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>570</v>
+        <v>855</v>
       </c>
       <c r="B9" t="s">
-        <v>571</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>857</v>
       </c>
       <c r="B10" t="s">
-        <v>573</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>859</v>
       </c>
       <c r="B11" t="s">
-        <v>575</v>
+        <v>860</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>861</v>
       </c>
       <c r="B12" t="s">
-        <v>577</v>
+        <v>862</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>578</v>
+        <v>863</v>
       </c>
       <c r="B13" t="s">
-        <v>579</v>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>865</v>
+      </c>
+      <c r="B14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>867</v>
+      </c>
+      <c r="B15" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>580</v>
+      <c r="A16" t="s">
+        <v>869</v>
+      </c>
+      <c r="B16" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>871</v>
+      </c>
+      <c r="B17" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>581</v>
+        <v>873</v>
       </c>
       <c r="B18" t="s">
-        <v>582</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="21" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="21" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="21" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="21" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="21" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="21" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="21" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="24" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>44</v>
+      <c r="A19" t="s">
+        <v>875</v>
+      </c>
+      <c r="B19" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>877</v>
+      </c>
+      <c r="B20" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>879</v>
+      </c>
+      <c r="B21" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>881</v>
+      </c>
+      <c r="B22" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>883</v>
+      </c>
+      <c r="B23" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>885</v>
+      </c>
+      <c r="B24" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>887</v>
+      </c>
+      <c r="B25" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>889</v>
+      </c>
+      <c r="B26" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>891</v>
+      </c>
+      <c r="B27" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>893</v>
+      </c>
+      <c r="B28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>894</v>
+      </c>
+      <c r="B29" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>896</v>
+      </c>
+      <c r="B30" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>898</v>
+      </c>
+      <c r="B31" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B32" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>900</v>
+      </c>
+      <c r="B33" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>902</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>903</v>
+      </c>
+      <c r="B35" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>905</v>
+      </c>
+      <c r="B36" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>907</v>
+      </c>
+      <c r="B37" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>909</v>
+      </c>
+      <c r="B38" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>911</v>
+      </c>
+      <c r="B39" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>913</v>
+      </c>
+      <c r="B40" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>915</v>
+      </c>
+      <c r="B41" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>917</v>
+      </c>
+      <c r="B42" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>919</v>
+      </c>
+      <c r="B43" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>921</v>
+      </c>
+      <c r="B44" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>923</v>
+      </c>
+      <c r="B45" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>925</v>
+      </c>
+      <c r="B46" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>927</v>
+      </c>
+      <c r="B47" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>929</v>
+      </c>
+      <c r="B48" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>931</v>
+      </c>
+      <c r="B49" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>933</v>
+      </c>
+      <c r="B50" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>935</v>
+      </c>
+      <c r="B51" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>937</v>
+      </c>
+      <c r="B52" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>939</v>
+      </c>
+      <c r="B53" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>941</v>
+      </c>
+      <c r="B54" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>943</v>
+      </c>
+      <c r="B55" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>945</v>
+      </c>
+      <c r="B56" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>947</v>
+      </c>
+      <c r="B57" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>949</v>
+      </c>
+      <c r="B58" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>951</v>
+      </c>
+      <c r="B59" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>953</v>
+      </c>
+      <c r="B60" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>955</v>
+      </c>
+      <c r="B61" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>957</v>
+      </c>
+      <c r="B62" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>959</v>
+      </c>
+      <c r="B63" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>961</v>
+      </c>
+      <c r="B64" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>963</v>
+      </c>
+      <c r="B65" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>670</v>
+        <v>965</v>
       </c>
       <c r="B66" t="s">
-        <v>671</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>672</v>
+        <v>967</v>
       </c>
       <c r="B67" t="s">
-        <v>673</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>674</v>
+        <v>969</v>
       </c>
       <c r="B68" t="s">
-        <v>675</v>
+        <v>970</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>676</v>
+        <v>971</v>
       </c>
       <c r="B69" t="s">
-        <v>677</v>
+        <v>972</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>678</v>
+        <v>973</v>
       </c>
       <c r="B70" t="s">
-        <v>679</v>
+        <v>974</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>680</v>
+        <v>975</v>
       </c>
       <c r="B71" t="s">
-        <v>681</v>
+        <v>976</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>682</v>
+        <v>977</v>
       </c>
       <c r="B72" t="s">
-        <v>683</v>
+        <v>978</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>684</v>
+        <v>979</v>
       </c>
       <c r="B73" t="s">
-        <v>685</v>
+        <v>980</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>686</v>
+        <v>981</v>
       </c>
       <c r="B74" t="s">
-        <v>687</v>
+        <v>982</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>688</v>
+        <v>983</v>
       </c>
       <c r="B75" t="s">
-        <v>689</v>
+        <v>984</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>690</v>
+        <v>985</v>
       </c>
       <c r="B76" t="s">
-        <v>691</v>
+        <v>986</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="B77" t="s">
-        <v>693</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>694</v>
+        <v>537</v>
       </c>
       <c r="B78" t="s">
-        <v>695</v>
+        <v>987</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>696</v>
+        <v>988</v>
       </c>
       <c r="B79" t="s">
-        <v>697</v>
+        <v>989</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>698</v>
+        <v>990</v>
       </c>
       <c r="B80" t="s">
-        <v>699</v>
+        <v>991</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>700</v>
+        <v>992</v>
       </c>
       <c r="B81" t="s">
-        <v>701</v>
+        <v>993</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>702</v>
+        <v>994</v>
       </c>
       <c r="B82" t="s">
-        <v>703</v>
+        <v>995</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>704</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>705</v>
+        <v>996</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>706</v>
+        <v>997</v>
       </c>
       <c r="B84" t="s">
-        <v>707</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>708</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>709</v>
+        <v>998</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>710</v>
+        <v>999</v>
       </c>
       <c r="B86" t="s">
-        <v>711</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>712</v>
+        <v>1001</v>
       </c>
       <c r="B87" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>714</v>
-      </c>
-      <c r="B88" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>716</v>
-      </c>
-      <c r="B89" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>718</v>
-      </c>
-      <c r="B90" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>720</v>
-      </c>
-      <c r="B91" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>722</v>
-      </c>
-      <c r="B92" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>724</v>
-      </c>
-      <c r="B93" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>726</v>
-      </c>
-      <c r="B94" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>728</v>
-      </c>
-      <c r="B95" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>730</v>
-      </c>
-      <c r="B96" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>732</v>
-      </c>
-      <c r="B97" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>734</v>
-      </c>
-      <c r="B98" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>736</v>
-      </c>
-      <c r="B99" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>738</v>
-      </c>
-      <c r="B100" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>740</v>
-      </c>
-      <c r="B101" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>742</v>
-      </c>
-      <c r="B102" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>744</v>
-      </c>
-      <c r="B103" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>746</v>
-      </c>
-      <c r="B104" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>748</v>
-      </c>
-      <c r="B105" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>750</v>
-      </c>
-      <c r="B106" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>752</v>
-      </c>
-      <c r="B107" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>754</v>
-      </c>
-      <c r="B108" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>756</v>
-      </c>
-      <c r="B109" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>758</v>
-      </c>
-      <c r="B110" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>760</v>
-      </c>
-      <c r="B111" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>762</v>
-      </c>
-      <c r="B112" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>764</v>
-      </c>
-      <c r="B113" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>766</v>
-      </c>
-      <c r="B114" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>768</v>
-      </c>
-      <c r="B115" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>770</v>
-      </c>
-      <c r="B116" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>772</v>
-      </c>
-      <c r="B117" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>774</v>
-      </c>
-      <c r="B118" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>776</v>
-      </c>
-      <c r="B119" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>778</v>
-      </c>
-      <c r="B120" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>780</v>
-      </c>
-      <c r="B121" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>782</v>
-      </c>
-      <c r="B122" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>784</v>
-      </c>
-      <c r="B123" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>786</v>
-      </c>
-      <c r="B124" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>788</v>
-      </c>
-      <c r="B125" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>790</v>
-      </c>
-      <c r="B126" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>792</v>
-      </c>
-      <c r="B127" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>794</v>
-      </c>
-      <c r="B128" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>796</v>
-      </c>
-      <c r="B129" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>798</v>
-      </c>
-      <c r="B130" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>800</v>
-      </c>
-      <c r="B131" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>802</v>
-      </c>
-      <c r="B132" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>804</v>
-      </c>
-      <c r="B133" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>806</v>
-      </c>
-      <c r="B134" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>808</v>
-      </c>
-      <c r="B135" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>810</v>
-      </c>
-      <c r="B136" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>811</v>
-      </c>
-      <c r="B137" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>813</v>
-      </c>
-      <c r="B138" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>815</v>
-      </c>
-      <c r="B139" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>817</v>
-      </c>
-      <c r="B140" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>819</v>
-      </c>
-      <c r="B141" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>821</v>
-      </c>
-      <c r="B142" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>822</v>
-      </c>
-      <c r="B144" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="10" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>825</v>
-      </c>
-      <c r="B148" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>827</v>
-      </c>
-      <c r="B149" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>829</v>
-      </c>
-      <c r="B150" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>831</v>
-      </c>
-      <c r="B152" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.6">
-      <c r="A153" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.6">
-      <c r="A155" s="12" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.6">
-      <c r="A157" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>837</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -7915,713 +7608,1415 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:B157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="179.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="136.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B3" t="s">
-        <v>844</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>845</v>
-      </c>
-      <c r="B4" t="s">
-        <v>846</v>
-      </c>
+      <c r="A4" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>847</v>
-      </c>
-      <c r="B5" t="s">
-        <v>848</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>849</v>
-      </c>
-      <c r="B6" t="s">
-        <v>850</v>
+      <c r="A6" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>851</v>
-      </c>
-      <c r="B7" t="s">
-        <v>852</v>
+      <c r="A7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>853</v>
-      </c>
-      <c r="B8" t="s">
-        <v>854</v>
+      <c r="A8" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>855</v>
-      </c>
-      <c r="B9" t="s">
-        <v>856</v>
+      <c r="A9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>857</v>
-      </c>
-      <c r="B10" t="s">
-        <v>858</v>
+      <c r="A10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>859</v>
-      </c>
-      <c r="B11" t="s">
-        <v>860</v>
+      <c r="A11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>861</v>
-      </c>
-      <c r="B12" t="s">
-        <v>862</v>
+      <c r="A12" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>863</v>
-      </c>
-      <c r="B13" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>865</v>
-      </c>
-      <c r="B14" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>867</v>
-      </c>
-      <c r="B15" t="s">
-        <v>868</v>
+      <c r="A13" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>869</v>
-      </c>
-      <c r="B16" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>871</v>
-      </c>
-      <c r="B17" t="s">
-        <v>872</v>
+      <c r="A16" s="8" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>873</v>
-      </c>
-      <c r="B18" t="s">
-        <v>874</v>
+      <c r="A18" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>875</v>
-      </c>
-      <c r="B19" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>877</v>
-      </c>
-      <c r="B20" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>879</v>
-      </c>
-      <c r="B21" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>881</v>
-      </c>
-      <c r="B22" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>883</v>
-      </c>
-      <c r="B23" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>885</v>
-      </c>
-      <c r="B24" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>887</v>
-      </c>
-      <c r="B25" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>889</v>
-      </c>
-      <c r="B26" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>891</v>
-      </c>
-      <c r="B27" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>893</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="21" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="24" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="21" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="21" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="24" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="24" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="21" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="21" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A60" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="24" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="24" customHeight="1">
+      <c r="A63" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="9" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>894</v>
-      </c>
-      <c r="B29" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>896</v>
-      </c>
-      <c r="B30" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>898</v>
-      </c>
-      <c r="B31" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>554</v>
-      </c>
-      <c r="B32" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>900</v>
-      </c>
-      <c r="B33" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>902</v>
-      </c>
-      <c r="B34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>903</v>
-      </c>
-      <c r="B35" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>905</v>
-      </c>
-      <c r="B36" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>907</v>
-      </c>
-      <c r="B37" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>909</v>
-      </c>
-      <c r="B38" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>911</v>
-      </c>
-      <c r="B39" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>913</v>
-      </c>
-      <c r="B40" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>915</v>
-      </c>
-      <c r="B41" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>917</v>
-      </c>
-      <c r="B42" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>919</v>
-      </c>
-      <c r="B43" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>921</v>
-      </c>
-      <c r="B44" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>923</v>
-      </c>
-      <c r="B45" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>925</v>
-      </c>
-      <c r="B46" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>927</v>
-      </c>
-      <c r="B47" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>929</v>
-      </c>
-      <c r="B48" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>931</v>
-      </c>
-      <c r="B49" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>933</v>
-      </c>
-      <c r="B50" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>935</v>
-      </c>
-      <c r="B51" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>937</v>
-      </c>
-      <c r="B52" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>939</v>
-      </c>
-      <c r="B53" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>941</v>
-      </c>
-      <c r="B54" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>943</v>
-      </c>
-      <c r="B55" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>945</v>
-      </c>
-      <c r="B56" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>947</v>
-      </c>
-      <c r="B57" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>949</v>
-      </c>
-      <c r="B58" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>951</v>
-      </c>
-      <c r="B59" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>953</v>
-      </c>
-      <c r="B60" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>955</v>
-      </c>
-      <c r="B61" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>957</v>
-      </c>
-      <c r="B62" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>959</v>
-      </c>
-      <c r="B63" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>961</v>
-      </c>
-      <c r="B64" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>963</v>
-      </c>
-      <c r="B65" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>965</v>
-      </c>
-      <c r="B66" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>967</v>
-      </c>
-      <c r="B67" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>969</v>
-      </c>
-      <c r="B68" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>971</v>
-      </c>
-      <c r="B69" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>973</v>
-      </c>
-      <c r="B70" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>975</v>
-      </c>
-      <c r="B71" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>977</v>
-      </c>
-      <c r="B72" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>979</v>
-      </c>
-      <c r="B73" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>981</v>
-      </c>
-      <c r="B74" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>983</v>
-      </c>
-      <c r="B75" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>985</v>
-      </c>
-      <c r="B76" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>556</v>
-      </c>
-      <c r="B77" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>537</v>
-      </c>
-      <c r="B78" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>988</v>
-      </c>
-      <c r="B79" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>990</v>
-      </c>
-      <c r="B80" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>992</v>
-      </c>
-      <c r="B81" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>994</v>
-      </c>
-      <c r="B82" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>254</v>
-      </c>
-      <c r="B83" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>997</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75">
+      <c r="A153" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75">
+      <c r="A155" s="10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75">
+      <c r="A157" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="132.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B85" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>999</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1002</v>
-      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CommonElements" sheetId="3" r:id="rId2"/>
-    <sheet name="ContactDetails_Elements" sheetId="4" r:id="rId3"/>
-    <sheet name="ReferenceDetails_Elements" sheetId="9" r:id="rId4"/>
-    <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId5"/>
-    <sheet name="AppDataEntryEmployementDetails" sheetId="6" r:id="rId6"/>
-    <sheet name="CDAppDataEntryCFIncomeDetails" sheetId="8" r:id="rId7"/>
-    <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId8"/>
-    <sheet name="ADE_IdentificationDet_610" sheetId="10" r:id="rId9"/>
+    <sheet name="customer_search_JS" sheetId="12" r:id="rId3"/>
+    <sheet name="CustomerDetailsElements" sheetId="11" r:id="rId4"/>
+    <sheet name="ContactDetails_Elements" sheetId="4" r:id="rId5"/>
+    <sheet name="ReferenceDetails_Elements" sheetId="9" r:id="rId6"/>
+    <sheet name="newApp_AppllicationDetailsJS" sheetId="5" r:id="rId7"/>
+    <sheet name="AppDataEntryEmployementDetails" sheetId="6" r:id="rId8"/>
+    <sheet name="CDAppDataEntryCFIncomeDetails" sheetId="8" r:id="rId9"/>
+    <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId10"/>
+    <sheet name="ADE_IdentificationDet_610" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1404">
   <si>
     <t>JSPath</t>
   </si>
@@ -3475,13 +3477,776 @@
   </si>
   <si>
     <t>document.querySelector('th[ng-reflect-field="recStatus"]')</t>
+  </si>
+  <si>
+    <t>CustomerDetailsElements</t>
+  </si>
+  <si>
+    <t>customer_details_tab</t>
+  </si>
+  <si>
+    <t>customerDetails_AddButton</t>
+  </si>
+  <si>
+    <t>application_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.APPLICANT.TYPE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customer_details_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_CUSTOMER_TYPE."]+ion-select')</t>
+  </si>
+  <si>
+    <t>title_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_SALUTAT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>first_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"] input')</t>
+  </si>
+  <si>
+    <t>first_Name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleName"] input')</t>
+  </si>
+  <si>
+    <t>middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastName"] input')</t>
+  </si>
+  <si>
+    <t>last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>family_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"] input')</t>
+  </si>
+  <si>
+    <t>family_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>first_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>first_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>middle_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>middle_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>last_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>last_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>family_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>family_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>date_of_birth_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"] input')</t>
+  </si>
+  <si>
+    <t>date_of_birth_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"]').innerText</t>
+  </si>
+  <si>
+    <t>date_of_birth_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"] p-calendar').getAttribute('ng-reflect-date-format')</t>
+  </si>
+  <si>
+    <t>age_input_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input input').getAttribute('type')</t>
+  </si>
+  <si>
+    <t>age_get_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input input').value</t>
+  </si>
+  <si>
+    <t>age_field_editable_check</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>age_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>gender_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>maritail_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>education_level_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]+ion-select')</t>
+  </si>
+  <si>
+    <t>nationality_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NATIONALITY.TOOLT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customer_residential_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_RESIDENTIAL_ST"]+ion-select')</t>
+  </si>
+  <si>
+    <t>languages_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.LANGUAGE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>client_category_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="clientCategory"] ion-select')</t>
+  </si>
+  <si>
+    <t>consent_obtained_for_credit_bureau_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Consent Obtained for Credit Bu"]+ion-select')</t>
+  </si>
+  <si>
+    <t>no_of_dependents_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]+ion-input input')</t>
+  </si>
+  <si>
+    <t>no_of_dependents_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]').innerText</t>
+  </si>
+  <si>
+    <t>remarks_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] ion-input input')</t>
+  </si>
+  <si>
+    <t>remarks_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>status_toggle_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>get_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>list_view_record_status</t>
+  </si>
+  <si>
+    <t>blacklisted_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.BLACKLISTED"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>blacklisted_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Blacklisted"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[tabindex="0"]')</t>
+  </si>
+  <si>
+    <t>first_name_input_field_level_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_edit_button</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_first_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('td[ng-reflect-ng-switch="string"] p-celleditor[class="p-element ng-star-inserted"] span').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_result</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-grid p-paginator[ng-reflect-rows="5"] span[class="p-paginator-current ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_input</t>
+  </si>
+  <si>
+    <t>customer_details_export_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[placeholder="Export"] span[class$= "p-placeholder ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>customer_details_excel_export_option</t>
+  </si>
+  <si>
+    <t>customer_details_pdf_export_option</t>
+  </si>
+  <si>
+    <t>customer_details_back_button_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[class$="ion-color-dark md title-default hydrated"]').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_record</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-table[ng-reflect-data-key="id"] thead[class="p-datatable-thead"]').innerText</t>
+  </si>
+  <si>
+    <t>no_of_childer_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnNum1"] input')</t>
+  </si>
+  <si>
+    <t>no_of_children_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnNum1"]').innerText</t>
+  </si>
+  <si>
+    <t>salutation_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="salutation"] ion-select')</t>
+  </si>
+  <si>
+    <t>salutation_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="salutation"]').innerText</t>
+  </si>
+  <si>
+    <t>father_first_name_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar1"] input')</t>
+  </si>
+  <si>
+    <t>father_first_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar1"]').innerText</t>
+  </si>
+  <si>
+    <t>father_middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar2"] input')</t>
+  </si>
+  <si>
+    <t>father_middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar2"]').innerText</t>
+  </si>
+  <si>
+    <t>father_last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar3"] input')</t>
+  </si>
+  <si>
+    <t>father_last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar3"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_first_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar4"] input')</t>
+  </si>
+  <si>
+    <t>spouse_first_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar4"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar5"] input')</t>
+  </si>
+  <si>
+    <t>spouse_middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar5"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar6"] input')</t>
+  </si>
+  <si>
+    <t>spouse_last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar6"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicNumericField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>spouse_status_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicNumericField1"]').innerText</t>
+  </si>
+  <si>
+    <t>gender_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>maritail_status_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]').innerText</t>
+  </si>
+  <si>
+    <t>educational_level_mandatory_verificatiion</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]').innerText</t>
+  </si>
+  <si>
+    <t>category_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="ethnicType"] ion-select')</t>
+  </si>
+  <si>
+    <t>relegion_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="religion"] ion-select')</t>
+  </si>
+  <si>
+    <t>mothers_maiden_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mothersName"] input')</t>
+  </si>
+  <si>
+    <t>mothers_maiden_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mothersName"]').innerText</t>
+  </si>
+  <si>
+    <t>type_of_residency_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="residenceType"] ion-select')</t>
+  </si>
+  <si>
+    <t>industry_segmentation_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="clientCategory"] ion-select')</t>
+  </si>
+  <si>
+    <t>is_income_considered_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isIncomeConsidered"] ion-select')</t>
+  </si>
+  <si>
+    <t>customer_profile_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicCharField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>relationship_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="relationship"] ion-select')</t>
+  </si>
+  <si>
+    <t>isPoliticallyExposed_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isPoliticallyExposed"] ion-select')</t>
+  </si>
+  <si>
+    <t>remarks_field_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] textarea')</t>
+  </si>
+  <si>
+    <t>remarks_field_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"]').innerText</t>
+  </si>
+  <si>
+    <t>existing_customer_flag</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="existingCustomerFlag"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>existing_customer_flag_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="existingCustomerFlag"]').innerText</t>
+  </si>
+  <si>
+    <t>is_blacklisted_flg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="isBlacklisted"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>phone_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="phone1"] input')</t>
+  </si>
+  <si>
+    <t>phone_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="phone1"]').innerText</t>
+  </si>
+  <si>
+    <t>mobile1_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile1"] input')</t>
+  </si>
+  <si>
+    <t>mobileNumber_primary_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile1"]').innerText</t>
+  </si>
+  <si>
+    <t>mobile_number_secondary_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile2"] input')</t>
+  </si>
+  <si>
+    <t>mobile_number_secondory_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile2"]').innerText</t>
+  </si>
+  <si>
+    <t>email_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="email"] input')</t>
+  </si>
+  <si>
+    <t>email_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="email"]').innerText</t>
+  </si>
+  <si>
+    <t>prefered_contact_method_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="preferredContactMethod"] ion-select')</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredContactTime"] input')</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredContactTime"]').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_view_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="View"]')</t>
+  </si>
+  <si>
+    <t>get_first_name_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"] input').value</t>
+  </si>
+  <si>
+    <t>get_last_name_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastName"] input').value</t>
+  </si>
+  <si>
+    <t>get_father_first_name_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar1"] input').value</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(2) button[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_get_first_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(5) span').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_get_last_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(7) span').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_get_middle_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(6) span').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(11) span').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_field_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table thead').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_CIF_ID_editable_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(4)')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_first_name_editable_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(5)')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_middle_name_editable_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(6)')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_last_name_editable_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(7)')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_customer_type_editable_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(8)')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_application_type_editable_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(9)')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_status_editable_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen kub-prime-table table tbody tr:nth-child(1) td:nth-child(11)')</t>
+  </si>
+  <si>
+    <t>customer_search_fieldName</t>
+  </si>
+  <si>
+    <t>customer_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customer_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Customer Name"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>customer_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Customer Name"] input')</t>
+  </si>
+  <si>
+    <t>id_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ID Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>id_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="idNumber"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>id_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="idNumber"] input')</t>
+  </si>
+  <si>
+    <t>date_of_birth_calendar_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Date of Birth"] input')</t>
+  </si>
+  <si>
+    <t>customer_search_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('customer-search button[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>customer_search_mobile_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Mobile Number"] ion-input input')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;-&quot;&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3510,6 +4275,54 @@
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3562,7 +4375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3585,11 +4398,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3611,9 +4452,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="12">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="2"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="3"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="4"/>
+    <cellStyle name="Heading" xfId="5"/>
+    <cellStyle name="Heading1" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="7"/>
+    <cellStyle name="Result" xfId="8"/>
+    <cellStyle name="Result2" xfId="9"/>
+    <cellStyle name="Result2 1" xfId="10"/>
+    <cellStyle name="Result2 2" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3986,6 +4839,1423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B157"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:B157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="136.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="21" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="24" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="21" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="21" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="24" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="24" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="21" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="21" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A60" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="24" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="24" customHeight="1">
+      <c r="A63" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="9" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75">
+      <c r="A153" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75">
+      <c r="A155" s="10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75">
+      <c r="A157" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="132.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B56"/>
@@ -4456,6 +6726,1109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -4729,7 +8102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
@@ -5228,7 +8601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -5664,7 +9037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B151"/>
   <sheetViews>
@@ -6891,7 +10264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B87"/>
   <sheetViews>
@@ -7604,1421 +10977,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B157"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157:B157"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="136.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="21" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="21" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="21" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="24" customHeight="1">
-      <c r="A37" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="21" customHeight="1">
-      <c r="A38" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A39" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="21" customHeight="1">
-      <c r="A40" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="24" customHeight="1">
-      <c r="A41" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="24" customHeight="1">
-      <c r="A42" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A44" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A45" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="24" customHeight="1">
-      <c r="A46" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A47" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A48" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A49" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="21" customHeight="1">
-      <c r="A50" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" customHeight="1">
-      <c r="A51" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="21" customHeight="1">
-      <c r="A52" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A53" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A54" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A55" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A56" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A57" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A58" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A59" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A60" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="24" customHeight="1">
-      <c r="A61" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A62" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="24" customHeight="1">
-      <c r="A63" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="9" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75">
-      <c r="A153" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75">
-      <c r="A155" s="10" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75">
-      <c r="A157" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>837</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
-    <col min="2" max="2" width="132.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="15" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="16" t="s">
-        <v>824</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="CDAppDataEntryCFIncomeDetails" sheetId="8" r:id="rId9"/>
     <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId10"/>
     <sheet name="ADE_IdentificationDet_610" sheetId="10" r:id="rId11"/>
+    <sheet name="AppDataEntryDocumentDetails" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="1515">
   <si>
     <t>JSPath</t>
   </si>
@@ -4236,6 +4237,339 @@
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Mobile Number"] ion-input input')</t>
+  </si>
+  <si>
+    <t>DocumentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>DocumentDetails_Button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg6"]')</t>
+  </si>
+  <si>
+    <t>DocumentDetails_AddIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DocumentName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>RequiredAtStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="REQUIRED_AT_STAGE.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DocumentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>MandatoryOptional</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="MANDATORY_OR_OPTIONAL.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DocumentCategory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>UploadDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="uploadDate"] button')</t>
+  </si>
+  <si>
+    <t>ExpectedReceiptDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="expectedDateOfReceipt"] button')</t>
+  </si>
+  <si>
+    <t>DeferralStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deferral Stage.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DefApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DEF_APPROVED_BY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>ChangeInNatureApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Change In Nature Approved By.T"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DocumentForm</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DocumentQuality</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>DocumentReferenceNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>DocumentReceivedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_APPROVED_BY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>LocationWhereReceived</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_DETAILS_LOCATION_WHER"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>RackNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>ShelfNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>BoxNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>DateOfExpiry</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="expiryDate"] button')</t>
+  </si>
+  <si>
+    <t>LodgementAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Lodgement Amount.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]+ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>SaveIcon</t>
+  </si>
+  <si>
+    <t>BackIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>EditIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="documentIdDesc"]').parentElement.parentElement.nextElementSibling.querySelectorAll('tr')[0].querySelectorAll('td')[0].querySelectorAll('button')[0]</t>
+  </si>
+  <si>
+    <t>mailBox</t>
+  </si>
+  <si>
+    <t>mailInboxSearchBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>inboxEntitleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Entitle"]')</t>
+  </si>
+  <si>
+    <t>nextBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class^="btnNext ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>TodayButton</t>
+  </si>
+  <si>
+    <t>DateOfExpiryInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Date Of Expiry.TOOLTIP"] p-calendar input')</t>
+  </si>
+  <si>
+    <t>HelpButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="information-circle-outline"]')</t>
+  </si>
+  <si>
+    <t>BackButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>ViewDocumentButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-json-name="Document_Form_01"]')</t>
+  </si>
+  <si>
+    <t>FileUploadButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="fileUploaded"]')</t>
+  </si>
+  <si>
+    <t>DocumentNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="documentIdDesc"]')</t>
+  </si>
+  <si>
+    <t>RequiredAtStageField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="requiredByStageDesc"]')</t>
+  </si>
+  <si>
+    <t>DocumentStatusField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="receivedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>MandatoryOptionalField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="isMandatoryDesc"]')</t>
+  </si>
+  <si>
+    <t>DocumentCategoryField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="documentClassIdDesc"]')</t>
+  </si>
+  <si>
+    <t>DMSUploadStatusField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="scannedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>SearchInput</t>
+  </si>
+  <si>
+    <t>ExportPDF</t>
+  </si>
+  <si>
+    <t>document.querySelector('li[aria-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>ExportXLS</t>
+  </si>
+  <si>
+    <t>document.querySelector('li[aria-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>ExportIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[ng-reflect-placeholder="Export"]')</t>
+  </si>
+  <si>
+    <t>SearchButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-search"]')  </t>
+  </si>
+  <si>
+    <t>ViewList_DocumentNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="documentIdDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_RequredAtStageField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="requiredByStageDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_DocumentStatusField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="receivedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_MandatoryOptionalField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="isMandatoryDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_DocumentCategoryField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="documentClassIdDesc"]')</t>
+  </si>
+  <si>
+    <t>VierList_DMSUploadStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="scannedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>listViewSearchResultValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen span[class="p-paginator-current ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>requiredFieldError</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-msg="VAL.ALPHANUMERIC.ALLOWED"]')</t>
+  </si>
+  <si>
+    <t>Edit_icon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
   </si>
 </sst>
 </file>
@@ -4430,7 +4764,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4453,6 +4787,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -4764,10 +5104,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="143.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="143.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4847,10 +5187,10 @@
       <selection activeCell="A157" sqref="A157:B157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="136.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="136.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5973,7 +6313,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.75">
+    <row r="153" spans="1:2" ht="15.6">
       <c r="A153" s="18" t="s">
         <v>833</v>
       </c>
@@ -5981,12 +6321,12 @@
         <v>834</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75">
+    <row r="155" spans="1:2" ht="15.6">
       <c r="A155" s="10" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.75">
+    <row r="157" spans="1:2" ht="15.6">
       <c r="A157" s="18" t="s">
         <v>836</v>
       </c>
@@ -6007,10 +6347,10 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
-    <col min="2" max="2" width="132.140625" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+    <col min="2" max="2" width="132.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6250,6 +6590,505 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="162.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>552</v>
+      </c>
+      <c r="B31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="20" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="21" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>1514</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6264,10 +7103,10 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="147.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6732,10 +7571,10 @@
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="96.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="96.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6835,14 +7674,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7835,10 +8674,10 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="156.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="156.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8110,10 +8949,10 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="151.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="151.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8609,10 +9448,10 @@
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="108.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="108.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9045,10 +9884,10 @@
       <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10272,10 +11111,10 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="179.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
+++ b/AzentioAutomationFramework_ConsumerDurables/TestData/ulsJsPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginElements" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="ADE_AddressDet_610" sheetId="7" r:id="rId10"/>
     <sheet name="ADE_IdentificationDet_610" sheetId="10" r:id="rId11"/>
     <sheet name="AppDataEntryDocumentDetails" sheetId="13" r:id="rId12"/>
+    <sheet name="ADE_FinancialCommitments" sheetId="14" r:id="rId13"/>
+    <sheet name="ADE_FacilityDetails" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1681">
   <si>
     <t>JSPath</t>
   </si>
@@ -4570,6 +4572,504 @@
   </si>
   <si>
     <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>Financialcommitments_Fields</t>
+  </si>
+  <si>
+    <t>FinancialType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="financeType"] ion-select')</t>
+  </si>
+  <si>
+    <t>FinancialInstitution</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="financierId"] ion-select')</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="accountNumber"]')</t>
+  </si>
+  <si>
+    <t>AccountNumber_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="accountNumber"] ion-input input')</t>
+  </si>
+  <si>
+    <t>SanctionDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="sanctionDate"]')</t>
+  </si>
+  <si>
+    <t>SanctionDate_dateVerify</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="sanctionDate"] button')</t>
+  </si>
+  <si>
+    <t>SanctionAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="sanctionAmount"]')</t>
+  </si>
+  <si>
+    <t>SanctionAmount_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="sanctionAmount"] ion-input input')</t>
+  </si>
+  <si>
+    <t>InterestRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="pricing"]')</t>
+  </si>
+  <si>
+    <t>InterestRate_Typeverify</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="pricing"] ion-input')</t>
+  </si>
+  <si>
+    <t>InterestRate_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="pricing"] ion-input input')</t>
+  </si>
+  <si>
+    <t>CurrentPrincipalBalance</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="principalOutstanding"]')</t>
+  </si>
+  <si>
+    <t>CurrentPrincipalBalance_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="principalOutstanding"] ion-input input')</t>
+  </si>
+  <si>
+    <t>Tenure(months)</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"]')</t>
+  </si>
+  <si>
+    <t>Tenure(months)_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] ion-input input')</t>
+  </si>
+  <si>
+    <t>Tenure(months)_inputValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] ion-input')</t>
+  </si>
+  <si>
+    <t>MaturityDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="maturityDate"]')</t>
+  </si>
+  <si>
+    <t>MaturityDate_dateverify</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="maturityDate"] button')</t>
+  </si>
+  <si>
+    <t>InstallmentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="emiAmount"]')</t>
+  </si>
+  <si>
+    <t>InstallmentAmount_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="emiAmount"] ion-input input')</t>
+  </si>
+  <si>
+    <t>InstallmentAmount_input_Verify</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="emiAmount"] ion-input')</t>
+  </si>
+  <si>
+    <t>AmountConsidered</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="principalOutstandingConsidered"]')</t>
+  </si>
+  <si>
+    <t>AmountConsidered_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="principalOutstandingConsidered"] ion-input input')</t>
+  </si>
+  <si>
+    <t>IncludeInEligibilityCalculation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="includeDbr"]')</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="currencyCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"]')</t>
+  </si>
+  <si>
+    <t>Remarks_input</t>
+  </si>
+  <si>
+    <t>NextDueDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dueDate"]')</t>
+  </si>
+  <si>
+    <t>NextDueDate_calenderVerify</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dueDate"] button')</t>
+  </si>
+  <si>
+    <t>CollateralType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="collateralId"] ion-select')</t>
+  </si>
+  <si>
+    <t>ClosedDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="loanClosedDate"]')</t>
+  </si>
+  <si>
+    <t>ClosedDate_calenderVerify</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="loanClosedDate"] button')</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="repaymentFrequency"] ion-select')</t>
+  </si>
+  <si>
+    <t>LastPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="lastPaymentAmount"]')</t>
+  </si>
+  <si>
+    <t>LastPaymentAmount_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="lastPaymentAmount"] ion-input input')</t>
+  </si>
+  <si>
+    <t>LastPaymentDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="lastPaymentDate"]')</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="productName"]')</t>
+  </si>
+  <si>
+    <t>ProductName_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="productName"] ion-input input')</t>
+  </si>
+  <si>
+    <t>Last24Cycle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="lastCycle"]')</t>
+  </si>
+  <si>
+    <t>Last24Cycle_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="lastCycle"] ion-input input')</t>
+  </si>
+  <si>
+    <t>FacilityStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="loanStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>RemainingTenure_Months</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="remainingTenure"]')</t>
+  </si>
+  <si>
+    <t>RemainingTenure_Months_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="remainingTenure"] ion-input input')</t>
+  </si>
+  <si>
+    <t>RemainingTenure_Months_inputverify</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-uq-code[id="remainingTenure"] ion-input')</t>
+  </si>
+  <si>
+    <t>BalanceTransferFlag_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="isBalanceTransferred"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>BalanceTransferFlag</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="isBalanceTransferred"]')</t>
+  </si>
+  <si>
+    <t>Disbursementdate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="facilityOpenDate"]')</t>
+  </si>
+  <si>
+    <t>NPAClassification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="npaClassi"] ion-select')</t>
+  </si>
+  <si>
+    <t>SaveButton</t>
+  </si>
+  <si>
+    <t>backButton</t>
+  </si>
+  <si>
+    <t>PleaseFillDetails_Popup</t>
+  </si>
+  <si>
+    <t>CharacterValue_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast[id="ion-overlay-38"]').shadowRoot.querySelector('div[class="toast-message"]').innerText</t>
+  </si>
+  <si>
+    <t>Status_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle[role="switch"]')</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status_current</t>
+  </si>
+  <si>
+    <t>AddButton_under_FacilityInfo</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Elements</t>
+  </si>
+  <si>
+    <t>Facility_info_Tab</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="product"] ion-select')</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="schemeId"] ion-select')</t>
+  </si>
+  <si>
+    <t>ProgrameCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="programCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="facilityTypeCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>ServicingBranch</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="location"] ion-select')</t>
+  </si>
+  <si>
+    <t>PricingIndicator</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="packageId"] ion-select')</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="amountRequested"]')</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.PR"]')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"]')</t>
+  </si>
+  <si>
+    <t>LoanTenure</t>
+  </si>
+  <si>
+    <t>RequestedAmount_mandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="amountRequested"] span[class="redclr ng-star-inserted"')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_number</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="amountRequested"] input')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_mandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] span[class="redclr ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_num</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>Select_HomeLoan</t>
+  </si>
+  <si>
+    <t>document.querySelector("#ion-overlay-57 &gt; ion-select-popover &gt; ion-list &gt; ion-radio-group &gt; ion-item:nth-child(2) &gt; ion-radio").shadowRoot.querySelector("#ion-rb-800")</t>
+  </si>
+  <si>
+    <t>Edit_button</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('#assetPrice &gt; div &gt; div &gt; ion-item &gt; div.PrimeInputBox &gt; div &gt; p-inputnumber &gt; span &gt; input')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_input</t>
+  </si>
+  <si>
+    <t>declaredDownpayment_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="downPaymentAmount"] ion-input input')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_type</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="requestedAmount"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="requestedAmount"] input')</t>
+  </si>
+  <si>
+    <t>LoanTenure_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>LoanTenure_data</t>
+  </si>
+  <si>
+    <t>SucessPopUP</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="Success"]')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_Value</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>BackButton_prev</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-buttons[slot="start"] ion-button')</t>
+  </si>
+  <si>
+    <t>Inbox_title</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class="inboxDatacaption"]')</t>
+  </si>
+  <si>
+    <t>LoanTenure_value</t>
+  </si>
+  <si>
+    <t>status_ToggleButton</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>search_button_for_record</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-search"]')[1]</t>
+  </si>
+  <si>
+    <t>facility_Status</t>
   </si>
 </sst>
 </file>
@@ -4580,7 +5080,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;-&quot;&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4656,6 +5156,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4764,7 +5270,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4793,6 +5299,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -5104,10 +5612,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="143.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="143.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5187,10 +5695,10 @@
       <selection activeCell="A157" sqref="A157:B157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" customWidth="1"/>
-    <col min="2" max="2" width="136.109375" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="136.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6313,7 +6821,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.6">
+    <row r="153" spans="1:2" ht="15.75">
       <c r="A153" s="18" t="s">
         <v>833</v>
       </c>
@@ -6321,12 +6829,12 @@
         <v>834</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.6">
+    <row r="155" spans="1:2" ht="15.75">
       <c r="A155" s="10" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.6">
+    <row r="157" spans="1:2" ht="15.75">
       <c r="A157" s="18" t="s">
         <v>836</v>
       </c>
@@ -6347,10 +6855,10 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
-    <col min="2" max="2" width="132.109375" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="132.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6600,14 +7108,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="162.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="162.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7088,6 +7596,844 @@
       </c>
       <c r="B60" s="21" t="s">
         <v>1514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="98.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75">
+      <c r="A51" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75">
+      <c r="A53" s="22" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75">
+      <c r="A55" s="22" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75">
+      <c r="A56" s="22" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B57" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75">
+      <c r="A58" s="22" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="161.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="22" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="22" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="22" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="22" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="22" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="22" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="22" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="22" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="22" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="22" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="22" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="22" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="22" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="22" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="22" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="22" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="22" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="22" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="22" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="22" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="22" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="22" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="22" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="22" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="22" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="22" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="22" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28" s="22" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
+      <c r="A29" s="22" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="22" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31" s="22" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32" s="22" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33" s="22" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="22" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="22" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36" s="22" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="22" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38" s="22" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75">
+      <c r="A39" s="22" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40" s="22" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75">
+      <c r="A41" s="22" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75">
+      <c r="A42" s="22" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -7097,16 +8443,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="147.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7555,6 +8901,30 @@
       </c>
       <c r="B56" s="1" t="s">
         <v>828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75">
+      <c r="A57" s="23" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75">
+      <c r="A58" s="23" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75">
+      <c r="A59" s="22" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7571,10 +8941,10 @@
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="96.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7678,10 +9048,10 @@
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8674,10 +10044,10 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="156.88671875" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="156.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8949,10 +10319,10 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="151.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="151.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9448,10 +10818,10 @@
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
-    <col min="2" max="2" width="108.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9884,10 +11254,10 @@
       <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -11111,10 +12481,10 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="179.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
